--- a/signal_output/genx_signals.xlsx
+++ b/signal_output/genx_signals.xlsx
@@ -55,14 +55,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -535,38 +535,38 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 15:40</t>
+          <t>2025-07-28 16:44</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.10353</v>
+        <v>0.58949</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.10052</v>
+        <v>0.59288</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.11283</v>
+        <v>0.58363</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>77.0%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>3.09</v>
+        <v>1.73</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
@@ -577,38 +577,38 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 16:28</t>
+          <t>2025-07-28 16:33</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.26608</v>
+        <v>1.36015</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.26114</v>
+        <v>1.36347</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.27162</v>
+        <v>1.35395</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>86.0%</t>
+          <t>90.0%</t>
         </is>
       </c>
       <c r="I3" s="2" t="n">
-        <v>1.12</v>
+        <v>1.87</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
@@ -619,38 +619,38 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 16:05</t>
+          <t>2025-07-28 16:10</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>149.27654</v>
+        <v>1.27368</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>149.56825</v>
+        <v>1.26993</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>148.53092</v>
+        <v>1.28025</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>92.0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="n">
-        <v>2.56</v>
+        <v>1.75</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
@@ -661,38 +661,38 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 16:15</t>
+          <t>2025-07-28 15:47</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
+          <t>USDCHF</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>BUY</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.65742</v>
+        <v>0.87907</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.65307</v>
+        <v>0.87601</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.6642400000000001</v>
+        <v>0.88886</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>76.0%</t>
+          <t>90.0%</t>
         </is>
       </c>
       <c r="I5" s="2" t="n">
-        <v>1.57</v>
+        <v>3.19</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -774,7 +774,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>78.1%</t>
+          <t>81.7%</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.11</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-28 16:04:04</t>
+          <t>2025-07-28 16:14:05</t>
         </is>
       </c>
     </row>
@@ -876,36 +876,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-28 15:40</t>
+          <t>2025-07-28 16:44</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.10353</v>
+        <v>0.58949</v>
       </c>
       <c r="E2" t="n">
-        <v>1.10052</v>
+        <v>0.59288</v>
       </c>
       <c r="F2" t="n">
-        <v>1.11283</v>
+        <v>0.58363</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.09</v>
+        <v>1.73</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -916,12 +916,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-28 15:55</t>
+          <t>2025-07-28 16:03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -930,22 +930,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.88518</v>
+        <v>1.27296</v>
       </c>
       <c r="E3" t="n">
-        <v>0.88153</v>
+        <v>1.26912</v>
       </c>
       <c r="F3" t="n">
-        <v>0.89268</v>
+        <v>1.28189</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="H3" t="n">
         <v>0.68</v>
       </c>
       <c r="I3" t="n">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -956,12 +956,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-28 16:28</t>
+          <t>2025-07-28 16:08</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -970,33 +970,33 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.26608</v>
+        <v>1.10392</v>
       </c>
       <c r="E4" t="n">
-        <v>1.26114</v>
+        <v>1.09981</v>
       </c>
       <c r="F4" t="n">
-        <v>1.27162</v>
+        <v>1.11355</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="I4" t="n">
-        <v>1.12</v>
+        <v>2.34</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-28 16:02</t>
+          <t>2025-07-28 15:58</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1010,38 +1010,38 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.10501</v>
+        <v>1.10635</v>
       </c>
       <c r="E5" t="n">
-        <v>1.10244</v>
+        <v>1.10404</v>
       </c>
       <c r="F5" t="n">
-        <v>1.11384</v>
+        <v>1.11404</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.71</v>
+        <v>0.89</v>
       </c>
       <c r="I5" t="n">
-        <v>3.44</v>
+        <v>3.33</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-28 16:27</t>
+          <t>2025-07-28 16:33</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1050,62 +1050,62 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.26437</v>
+        <v>1.36015</v>
       </c>
       <c r="E6" t="n">
-        <v>1.26868</v>
+        <v>1.36347</v>
       </c>
       <c r="F6" t="n">
-        <v>1.25511</v>
+        <v>1.35395</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="H6" t="n">
-        <v>0.72</v>
+        <v>0.9</v>
       </c>
       <c r="I6" t="n">
-        <v>2.14</v>
+        <v>1.87</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-28 16:18</t>
+          <t>2025-07-28 15:51</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.35864</v>
+        <v>149.26014</v>
       </c>
       <c r="E7" t="n">
-        <v>1.36199</v>
+        <v>148.98974</v>
       </c>
       <c r="F7" t="n">
-        <v>1.34966</v>
+        <v>150.01281</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H7" t="n">
-        <v>0.88</v>
+        <v>0.68</v>
       </c>
       <c r="I7" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -1116,36 +1116,36 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-28 15:53</t>
+          <t>2025-07-28 16:01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.10032</v>
+        <v>0.65602</v>
       </c>
       <c r="E8" t="n">
-        <v>1.09825</v>
+        <v>0.65811</v>
       </c>
       <c r="F8" t="n">
-        <v>1.10994</v>
+        <v>0.6519</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="I8" t="n">
-        <v>4.64</v>
+        <v>1.98</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1156,36 +1156,36 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-28 16:26</t>
+          <t>2025-07-28 16:38</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.3697</v>
+        <v>1.27178</v>
       </c>
       <c r="E9" t="n">
-        <v>1.36514</v>
+        <v>1.27625</v>
       </c>
       <c r="F9" t="n">
-        <v>1.37922</v>
+        <v>1.265</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="I9" t="n">
-        <v>2.08</v>
+        <v>1.51</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-07-28 15:48</t>
+          <t>2025-07-28 15:46</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1210,33 +1210,33 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.65898</v>
+        <v>0.66004</v>
       </c>
       <c r="E10" t="n">
-        <v>0.65434</v>
+        <v>0.65789</v>
       </c>
       <c r="F10" t="n">
-        <v>0.66611</v>
+        <v>0.665</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.77</v>
+        <v>0.67</v>
       </c>
       <c r="I10" t="n">
-        <v>1.53</v>
+        <v>2.3</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-28 16:05</t>
+          <t>2025-07-28 16:03</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1246,26 +1246,26 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.10987</v>
+        <v>1.10039</v>
       </c>
       <c r="E11" t="n">
-        <v>1.1127</v>
+        <v>1.09594</v>
       </c>
       <c r="F11" t="n">
-        <v>1.10465</v>
+        <v>1.10777</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="H11" t="n">
-        <v>0.73</v>
+        <v>0.78</v>
       </c>
       <c r="I11" t="n">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1276,52 +1276,52 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-28 16:31</t>
+          <t>2025-07-28 16:21</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.10171</v>
+        <v>1.26382</v>
       </c>
       <c r="E12" t="n">
-        <v>1.09805</v>
+        <v>1.26865</v>
       </c>
       <c r="F12" t="n">
-        <v>1.10753</v>
+        <v>1.25472</v>
       </c>
       <c r="G12" t="n">
         <v>0.02</v>
       </c>
       <c r="H12" t="n">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="I12" t="n">
-        <v>1.59</v>
+        <v>1.88</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-28 16:05</t>
+          <t>2025-07-28 16:35</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1330,78 +1330,78 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>149.27654</v>
+        <v>1.10051</v>
       </c>
       <c r="E13" t="n">
-        <v>149.56825</v>
+        <v>1.10462</v>
       </c>
       <c r="F13" t="n">
-        <v>148.53092</v>
+        <v>1.0959</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="I13" t="n">
-        <v>2.56</v>
+        <v>1.12</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-28 16:15</t>
+          <t>2025-07-28 16:24</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.65742</v>
+        <v>0.88506</v>
       </c>
       <c r="E14" t="n">
-        <v>0.65307</v>
+        <v>0.88976</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6642400000000001</v>
+        <v>0.87636</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H14" t="n">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="I14" t="n">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-28 16:02</t>
+          <t>2025-07-28 16:10</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1410,38 +1410,38 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8805500000000001</v>
+        <v>1.27368</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8781600000000001</v>
+        <v>1.26993</v>
       </c>
       <c r="F15" t="n">
-        <v>0.88547</v>
+        <v>1.28025</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="I15" t="n">
-        <v>2.06</v>
+        <v>1.75</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-28 16:26</t>
+          <t>2025-07-28 15:47</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1450,26 +1450,26 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.65801</v>
+        <v>0.87907</v>
       </c>
       <c r="E16" t="n">
-        <v>0.65529</v>
+        <v>0.87601</v>
       </c>
       <c r="F16" t="n">
-        <v>0.66753</v>
+        <v>0.88886</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.71</v>
+        <v>0.9</v>
       </c>
       <c r="I16" t="n">
-        <v>3.49</v>
+        <v>3.19</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Active</t>
         </is>
       </c>
     </row>

--- a/signal_output/genx_signals.xlsx
+++ b/signal_output/genx_signals.xlsx
@@ -40,7 +40,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -57,12 +57,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFC7CE"/>
         <bgColor rgb="00FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -84,14 +78,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -460,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,7 +528,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 16:44</t>
+          <t>2025-07-28 16:29</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -549,24 +542,24 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.58949</v>
+        <v>0.59027</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.59288</v>
+        <v>0.59471</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.58363</v>
+        <v>0.5813</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>68.0%</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1.73</v>
+        <v>2.02</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
@@ -577,12 +570,12 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 16:33</t>
+          <t>2025-07-28 16:03</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -591,24 +584,24 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.36015</v>
+        <v>0.59092</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.36347</v>
+        <v>0.59559</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.35395</v>
+        <v>0.58222</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>90.0%</t>
+          <t>84.0%</t>
         </is>
       </c>
       <c r="I3" s="2" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
@@ -619,38 +612,38 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 16:10</t>
+          <t>2025-07-28 15:53</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>BUY</t>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.27368</v>
+        <v>148.7591</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.26993</v>
+        <v>148.97191</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.28025</v>
+        <v>148.00594</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>92.0%</t>
+          <t>66.0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1.75</v>
+        <v>3.54</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
@@ -661,40 +654,82 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 15:47</t>
+          <t>2025-07-28 16:34</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
+          <t>NZDUSD</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0.59032</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0.5938</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0.58405</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>87.0%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-28 16:07</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
           <t>USDCHF</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0.87907</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0.87601</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0.88886</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>90.0%</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.88256</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0.88551</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0.87266</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>82.0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
@@ -720,14 +755,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>GenX FX Trading Dashboard</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Total Signals</t>
         </is>
@@ -737,68 +772,68 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Active Signals</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>BUY Signals</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>SELL Signals</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>Average Confidence</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>81.7%</t>
+          <t>77.6%</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>Average Risk/Reward</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.09</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>Last Update</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-28 16:14:05</t>
+          <t>2025-07-28 16:19:05</t>
         </is>
       </c>
     </row>
@@ -822,52 +857,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Symbol</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Signal</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Entry</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>SL</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>TP</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Lots</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>Confidence</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>R:R</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
@@ -876,12 +911,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-28 16:44</t>
+          <t>2025-07-28 16:38</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -890,73 +925,73 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.58949</v>
+        <v>0.65446</v>
       </c>
       <c r="E2" t="n">
-        <v>0.59288</v>
+        <v>0.65779</v>
       </c>
       <c r="F2" t="n">
-        <v>0.58363</v>
+        <v>0.64612</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="I2" t="n">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-28 16:03</t>
+          <t>2025-07-28 16:29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.27296</v>
+        <v>0.59027</v>
       </c>
       <c r="E3" t="n">
-        <v>1.26912</v>
+        <v>0.59471</v>
       </c>
       <c r="F3" t="n">
-        <v>1.28189</v>
+        <v>0.5813</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H3" t="n">
         <v>0.68</v>
       </c>
       <c r="I3" t="n">
-        <v>2.33</v>
+        <v>2.02</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-28 16:08</t>
+          <t>2025-07-28 16:31</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -970,78 +1005,78 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.10392</v>
+        <v>1.10518</v>
       </c>
       <c r="E4" t="n">
-        <v>1.09981</v>
+        <v>1.10121</v>
       </c>
       <c r="F4" t="n">
-        <v>1.11355</v>
+        <v>1.11047</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9</v>
+        <v>0.79</v>
       </c>
       <c r="I4" t="n">
-        <v>2.34</v>
+        <v>1.33</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-28 15:58</t>
+          <t>2025-07-28 16:03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.10635</v>
+        <v>0.59092</v>
       </c>
       <c r="E5" t="n">
-        <v>1.10404</v>
+        <v>0.59559</v>
       </c>
       <c r="F5" t="n">
-        <v>1.11404</v>
+        <v>0.58222</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H5" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="I5" t="n">
-        <v>3.33</v>
+        <v>1.86</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-28 16:33</t>
+          <t>2025-07-28 15:53</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1050,22 +1085,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.36015</v>
+        <v>148.7591</v>
       </c>
       <c r="E6" t="n">
-        <v>1.36347</v>
+        <v>148.97191</v>
       </c>
       <c r="F6" t="n">
-        <v>1.35395</v>
+        <v>148.00594</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9</v>
+        <v>0.66</v>
       </c>
       <c r="I6" t="n">
-        <v>1.87</v>
+        <v>3.54</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -1076,12 +1111,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-28 15:51</t>
+          <t>2025-07-28 16:36</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1090,38 +1125,38 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>149.26014</v>
+        <v>0.58971</v>
       </c>
       <c r="E7" t="n">
-        <v>148.98974</v>
+        <v>0.58547</v>
       </c>
       <c r="F7" t="n">
-        <v>150.01281</v>
+        <v>0.5941</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.68</v>
+        <v>0.91</v>
       </c>
       <c r="I7" t="n">
-        <v>2.78</v>
+        <v>1.04</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-28 16:01</t>
+          <t>2025-07-28 16:34</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1130,38 +1165,38 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.65602</v>
+        <v>0.59032</v>
       </c>
       <c r="E8" t="n">
-        <v>0.65811</v>
+        <v>0.5938</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6519</v>
+        <v>0.58405</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H8" t="n">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="I8" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-28 16:38</t>
+          <t>2025-07-28 16:19</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1170,22 +1205,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.27178</v>
+        <v>0.65982</v>
       </c>
       <c r="E9" t="n">
-        <v>1.27625</v>
+        <v>0.6634100000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>1.265</v>
+        <v>0.65043</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H9" t="n">
-        <v>0.66</v>
+        <v>0.92</v>
       </c>
       <c r="I9" t="n">
-        <v>1.51</v>
+        <v>2.62</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1196,12 +1231,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-07-28 15:46</t>
+          <t>2025-07-28 16:34</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1210,38 +1245,38 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.66004</v>
+        <v>1.10384</v>
       </c>
       <c r="E10" t="n">
-        <v>0.65789</v>
+        <v>1.09903</v>
       </c>
       <c r="F10" t="n">
-        <v>0.665</v>
+        <v>1.10812</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H10" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="I10" t="n">
-        <v>2.3</v>
+        <v>0.89</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-28 16:03</t>
+          <t>2025-07-28 15:54</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1250,22 +1285,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.10039</v>
+        <v>0.59185</v>
       </c>
       <c r="E11" t="n">
-        <v>1.09594</v>
+        <v>0.58911</v>
       </c>
       <c r="F11" t="n">
-        <v>1.10777</v>
+        <v>0.60011</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H11" t="n">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
       <c r="I11" t="n">
-        <v>1.66</v>
+        <v>3.02</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1276,52 +1311,52 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-28 16:21</t>
+          <t>2025-07-28 16:11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.26382</v>
+        <v>150.20715</v>
       </c>
       <c r="E12" t="n">
-        <v>1.26865</v>
+        <v>149.90187</v>
       </c>
       <c r="F12" t="n">
-        <v>1.25472</v>
+        <v>150.6095</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0.76</v>
+        <v>0.67</v>
       </c>
       <c r="I12" t="n">
-        <v>1.88</v>
+        <v>1.32</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-28 16:35</t>
+          <t>2025-07-28 16:06</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1330,22 +1365,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.10051</v>
+        <v>0.58912</v>
       </c>
       <c r="E13" t="n">
-        <v>1.10462</v>
+        <v>0.59309</v>
       </c>
       <c r="F13" t="n">
-        <v>1.0959</v>
+        <v>0.5834</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="H13" t="n">
-        <v>0.89</v>
+        <v>0.66</v>
       </c>
       <c r="I13" t="n">
-        <v>1.12</v>
+        <v>1.44</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1356,7 +1391,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-28 16:24</t>
+          <t>2025-07-28 16:07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1370,38 +1405,38 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.88506</v>
+        <v>0.88256</v>
       </c>
       <c r="E14" t="n">
-        <v>0.88976</v>
+        <v>0.88551</v>
       </c>
       <c r="F14" t="n">
-        <v>0.87636</v>
+        <v>0.87266</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="H14" t="n">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="I14" t="n">
-        <v>1.85</v>
+        <v>3.36</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-28 16:10</t>
+          <t>2025-07-28 16:29</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1410,66 +1445,66 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.27368</v>
+        <v>1.36602</v>
       </c>
       <c r="E15" t="n">
-        <v>1.26993</v>
+        <v>1.36135</v>
       </c>
       <c r="F15" t="n">
-        <v>1.28025</v>
+        <v>1.37252</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="H15" t="n">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="I15" t="n">
-        <v>1.75</v>
+        <v>1.39</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-28 15:47</t>
+          <t>2025-07-28 16:44</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.87907</v>
+        <v>0.58751</v>
       </c>
       <c r="E16" t="n">
-        <v>0.87601</v>
+        <v>0.5906400000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>0.88886</v>
+        <v>0.57763</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="I16" t="n">
-        <v>3.19</v>
+        <v>3.16</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>

--- a/signal_output/genx_signals.xlsx
+++ b/signal_output/genx_signals.xlsx
@@ -40,7 +40,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -51,6 +51,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00366092"/>
         <bgColor rgb="00366092"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -78,13 +84,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -453,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,38 +535,38 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 16:29</t>
+          <t>2025-07-28 16:56</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.59027</v>
+        <v>0.87966</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.59471</v>
+        <v>0.87537</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.5813</v>
+        <v>0.88524</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>68.0%</t>
+          <t>66.0%</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>2.02</v>
+        <v>1.3</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
@@ -570,30 +577,30 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 16:03</t>
+          <t>2025-07-28 17:00</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
+          <t>USDCHF</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>SELL</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.59092</v>
+        <v>0.87758</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.59559</v>
+        <v>0.88067</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0.58222</v>
+        <v>0.87008</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
@@ -601,7 +608,7 @@
         </is>
       </c>
       <c r="I3" s="2" t="n">
-        <v>1.86</v>
+        <v>2.42</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
@@ -612,38 +619,38 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 15:53</t>
+          <t>2025-07-28 16:58</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>USDJPY</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>SELL</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>148.7591</v>
+        <v>0.65779</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>148.97191</v>
+        <v>0.65987</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>148.00594</v>
+        <v>0.6505300000000001</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>66.0%</t>
+          <t>91.0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="n">
-        <v>3.54</v>
+        <v>3.5</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
@@ -654,82 +661,40 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 16:34</t>
+          <t>2025-07-28 16:55</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
+          <t>USDCHF</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>SELL</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.59032</v>
+        <v>0.87915</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.5938</v>
+        <v>0.88223</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.58405</v>
+        <v>0.87376</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87.0%</t>
+          <t>78.0%</t>
         </is>
       </c>
       <c r="I5" s="2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-28 16:07</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>USDCHF</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0.88256</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0.88551</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0.87266</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>82.0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
@@ -755,14 +720,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>GenX FX Trading Dashboard</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>Total Signals</t>
         </is>
@@ -772,68 +737,68 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Active Signals</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>BUY Signals</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>SELL Signals</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>SELL Signals</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-    </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>Average Confidence</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>77.6%</t>
+          <t>81.4%</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Average Risk/Reward</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>1.89</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>Last Update</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-28 16:19:05</t>
+          <t>2025-07-28 16:34:07</t>
         </is>
       </c>
     </row>
@@ -857,52 +822,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Symbol</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Signal</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Entry</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>SL</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>TP</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Lots</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>Confidence</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="7" t="inlineStr">
         <is>
           <t>R:R</t>
         </is>
       </c>
-      <c r="J1" s="6" t="inlineStr">
+      <c r="J1" s="7" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
@@ -911,36 +876,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-28 16:38</t>
+          <t>2025-07-28 16:07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.65446</v>
+        <v>1.10302</v>
       </c>
       <c r="E2" t="n">
-        <v>0.65779</v>
+        <v>1.09921</v>
       </c>
       <c r="F2" t="n">
-        <v>0.64612</v>
+        <v>1.11156</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="H2" t="n">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -951,36 +916,36 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-28 16:29</t>
+          <t>2025-07-28 16:56</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.59027</v>
+        <v>0.87966</v>
       </c>
       <c r="E3" t="n">
-        <v>0.59471</v>
+        <v>0.87537</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5813</v>
+        <v>0.88524</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="I3" t="n">
-        <v>2.02</v>
+        <v>1.3</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -991,7 +956,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-28 16:31</t>
+          <t>2025-07-28 16:47</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1005,78 +970,78 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.10518</v>
+        <v>1.10177</v>
       </c>
       <c r="E4" t="n">
-        <v>1.10121</v>
+        <v>1.09809</v>
       </c>
       <c r="F4" t="n">
-        <v>1.11047</v>
+        <v>1.10796</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H4" t="n">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>1.33</v>
+        <v>1.68</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-28 16:03</t>
+          <t>2025-07-28 16:26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.59092</v>
+        <v>0.8822</v>
       </c>
       <c r="E5" t="n">
-        <v>0.59559</v>
+        <v>0.87761</v>
       </c>
       <c r="F5" t="n">
-        <v>0.58222</v>
+        <v>0.89046</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="H5" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="I5" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-28 15:53</t>
+          <t>2025-07-28 17:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1085,22 +1050,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>148.7591</v>
+        <v>0.87758</v>
       </c>
       <c r="E6" t="n">
-        <v>148.97191</v>
+        <v>0.88067</v>
       </c>
       <c r="F6" t="n">
-        <v>148.00594</v>
+        <v>0.87008</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H6" t="n">
-        <v>0.66</v>
+        <v>0.84</v>
       </c>
       <c r="I6" t="n">
-        <v>3.54</v>
+        <v>2.42</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -1111,7 +1076,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-28 16:36</t>
+          <t>2025-07-28 16:12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1125,38 +1090,38 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.58971</v>
+        <v>0.59078</v>
       </c>
       <c r="E7" t="n">
-        <v>0.58547</v>
+        <v>0.58586</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5941</v>
+        <v>0.60039</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="H7" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="I7" t="n">
-        <v>1.04</v>
+        <v>1.95</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-28 16:34</t>
+          <t>2025-07-28 16:58</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1165,22 +1130,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.59032</v>
+        <v>0.65779</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5938</v>
+        <v>0.65987</v>
       </c>
       <c r="F8" t="n">
-        <v>0.58405</v>
+        <v>0.6505300000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="H8" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="I8" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1191,40 +1156,40 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-28 16:19</t>
+          <t>2025-07-28 16:26</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.65982</v>
+        <v>149.15831</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6634100000000001</v>
+        <v>148.73838</v>
       </c>
       <c r="F9" t="n">
-        <v>0.65043</v>
+        <v>150.1414</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H9" t="n">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="I9" t="n">
-        <v>2.62</v>
+        <v>2.34</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1201,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1245,22 +1210,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.10384</v>
+        <v>0.87881</v>
       </c>
       <c r="E10" t="n">
-        <v>1.09903</v>
+        <v>0.87459</v>
       </c>
       <c r="F10" t="n">
-        <v>1.10812</v>
+        <v>0.88583</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="H10" t="n">
         <v>0.75</v>
       </c>
       <c r="I10" t="n">
-        <v>0.89</v>
+        <v>1.67</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1271,7 +1236,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-28 15:54</t>
+          <t>2025-07-28 16:31</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1285,62 +1250,62 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.59185</v>
+        <v>0.59115</v>
       </c>
       <c r="E11" t="n">
-        <v>0.58911</v>
+        <v>0.5878</v>
       </c>
       <c r="F11" t="n">
-        <v>0.60011</v>
+        <v>0.59581</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="H11" t="n">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="I11" t="n">
-        <v>3.02</v>
+        <v>1.39</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-28 16:11</t>
+          <t>2025-07-28 16:50</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>150.20715</v>
+        <v>1.26444</v>
       </c>
       <c r="E12" t="n">
-        <v>149.90187</v>
+        <v>1.2683</v>
       </c>
       <c r="F12" t="n">
-        <v>150.6095</v>
+        <v>1.25799</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H12" t="n">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="I12" t="n">
-        <v>1.32</v>
+        <v>1.67</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1351,12 +1316,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-28 16:06</t>
+          <t>2025-07-28 16:07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1365,22 +1330,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.58912</v>
+        <v>0.6543600000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.59309</v>
+        <v>0.65788</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5834</v>
+        <v>0.64725</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="H13" t="n">
-        <v>0.66</v>
+        <v>0.91</v>
       </c>
       <c r="I13" t="n">
-        <v>1.44</v>
+        <v>2.02</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1391,76 +1356,76 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-28 16:07</t>
+          <t>2025-07-28 16:46</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.88256</v>
+        <v>1.36578</v>
       </c>
       <c r="E14" t="n">
-        <v>0.88551</v>
+        <v>1.36114</v>
       </c>
       <c r="F14" t="n">
-        <v>0.87266</v>
+        <v>1.37219</v>
       </c>
       <c r="G14" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="H14" t="n">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="I14" t="n">
-        <v>3.36</v>
+        <v>1.38</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-28 16:29</t>
+          <t>2025-07-28 16:04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.36602</v>
+        <v>1.09923</v>
       </c>
       <c r="E15" t="n">
-        <v>1.36135</v>
+        <v>1.10336</v>
       </c>
       <c r="F15" t="n">
-        <v>1.37252</v>
+        <v>1.09421</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="H15" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="I15" t="n">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1471,12 +1436,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-28 16:44</t>
+          <t>2025-07-28 16:55</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1485,26 +1450,26 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.58751</v>
+        <v>0.87915</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5906400000000001</v>
+        <v>0.88223</v>
       </c>
       <c r="F16" t="n">
-        <v>0.57763</v>
+        <v>0.87376</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H16" t="n">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
       <c r="I16" t="n">
-        <v>3.16</v>
+        <v>1.75</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Active</t>
         </is>
       </c>
     </row>

--- a/signal_output/genx_signals.xlsx
+++ b/signal_output/genx_signals.xlsx
@@ -535,12 +535,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 16:56</t>
+          <t>2025-07-28 19:44</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -549,24 +549,24 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.87966</v>
+        <v>0.6569199999999999</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.87537</v>
+        <v>0.65464</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.88524</v>
+        <v>0.66323</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>66.0%</t>
+          <t>77.0%</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1.3</v>
+        <v>2.77</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
@@ -577,38 +577,38 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 17:00</t>
+          <t>2025-07-28 19:29</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>USDCHF</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>SELL</t>
+          <t>USDCAD</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.87758</v>
+        <v>1.36116</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.88067</v>
+        <v>1.35649</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0.87008</v>
+        <v>1.36818</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0.09</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>84.0%</t>
+          <t>68.0%</t>
         </is>
       </c>
       <c r="I3" s="2" t="n">
-        <v>2.42</v>
+        <v>1.51</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
@@ -619,12 +619,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 16:58</t>
+          <t>2025-07-28 19:24</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -633,16 +633,16 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.65779</v>
+        <v>1.27154</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.65987</v>
+        <v>1.27653</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0.6505300000000001</v>
+        <v>1.26573</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="I4" s="2" t="n">
-        <v>3.5</v>
+        <v>1.16</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
@@ -661,38 +661,38 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 16:55</t>
+          <t>2025-07-28 19:40</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>USDCHF</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>SELL</t>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.87915</v>
+        <v>0.65813</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.88223</v>
+        <v>0.65364</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.87376</v>
+        <v>0.6622400000000001</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78.0%</t>
+          <t>65.0%</t>
         </is>
       </c>
       <c r="I5" s="2" t="n">
-        <v>1.75</v>
+        <v>0.92</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -774,7 +774,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>81.4%</t>
+          <t>79.6%</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.99</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-28 16:34:07</t>
+          <t>2025-07-28 19:25:28</t>
         </is>
       </c>
     </row>
@@ -876,12 +876,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-28 16:07</t>
+          <t>2025-07-28 19:44</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -890,38 +890,38 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.10302</v>
+        <v>0.6569199999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>1.09921</v>
+        <v>0.65464</v>
       </c>
       <c r="F2" t="n">
-        <v>1.11156</v>
+        <v>0.66323</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="I2" t="n">
-        <v>2.24</v>
+        <v>2.77</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-28 16:56</t>
+          <t>2025-07-28 19:29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -930,22 +930,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.87966</v>
+        <v>1.36116</v>
       </c>
       <c r="E3" t="n">
-        <v>0.87537</v>
+        <v>1.35649</v>
       </c>
       <c r="F3" t="n">
-        <v>0.88524</v>
+        <v>1.36818</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="H3" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="I3" t="n">
-        <v>1.3</v>
+        <v>1.51</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -956,12 +956,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-28 16:47</t>
+          <t>2025-07-28 19:38</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -970,118 +970,118 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.10177</v>
+        <v>1.36194</v>
       </c>
       <c r="E4" t="n">
-        <v>1.09809</v>
+        <v>1.35947</v>
       </c>
       <c r="F4" t="n">
-        <v>1.10796</v>
+        <v>1.3684</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="I4" t="n">
-        <v>1.68</v>
+        <v>2.61</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-28 16:26</t>
+          <t>2025-07-28 19:24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8822</v>
+        <v>1.27154</v>
       </c>
       <c r="E5" t="n">
-        <v>0.87761</v>
+        <v>1.27653</v>
       </c>
       <c r="F5" t="n">
-        <v>0.89046</v>
+        <v>1.26573</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H5" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="I5" t="n">
-        <v>1.8</v>
+        <v>1.16</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-28 17:00</t>
+          <t>2025-07-28 19:34</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.87758</v>
+        <v>150.00672</v>
       </c>
       <c r="E6" t="n">
-        <v>0.88067</v>
+        <v>149.69719</v>
       </c>
       <c r="F6" t="n">
-        <v>0.87008</v>
+        <v>150.70286</v>
       </c>
       <c r="G6" t="n">
         <v>0.09</v>
       </c>
       <c r="H6" t="n">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="I6" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-28 16:12</t>
+          <t>2025-07-28 19:02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1090,22 +1090,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.59078</v>
+        <v>1.27111</v>
       </c>
       <c r="E7" t="n">
-        <v>0.58586</v>
+        <v>1.26667</v>
       </c>
       <c r="F7" t="n">
-        <v>0.60039</v>
+        <v>1.28048</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="H7" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="I7" t="n">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -1116,92 +1116,92 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-28 16:58</t>
+          <t>2025-07-28 19:11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.65779</v>
+        <v>0.58896</v>
       </c>
       <c r="E8" t="n">
-        <v>0.65987</v>
+        <v>0.5866</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6505300000000001</v>
+        <v>0.59733</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="H8" t="n">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="I8" t="n">
-        <v>3.5</v>
+        <v>3.56</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-28 16:26</t>
+          <t>2025-07-28 19:03</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>149.15831</v>
+        <v>1.10897</v>
       </c>
       <c r="E9" t="n">
-        <v>148.73838</v>
+        <v>1.11237</v>
       </c>
       <c r="F9" t="n">
-        <v>150.1414</v>
+        <v>1.10414</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="H9" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="I9" t="n">
-        <v>2.34</v>
+        <v>1.42</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-07-28 16:34</t>
+          <t>2025-07-28 19:02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1210,78 +1210,78 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.87881</v>
+        <v>0.65579</v>
       </c>
       <c r="E10" t="n">
-        <v>0.87459</v>
+        <v>0.65228</v>
       </c>
       <c r="F10" t="n">
-        <v>0.88583</v>
+        <v>0.6625799999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="H10" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="I10" t="n">
-        <v>1.67</v>
+        <v>1.94</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-28 16:31</t>
+          <t>2025-07-28 19:21</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.59115</v>
+        <v>0.65563</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5878</v>
+        <v>0.6601</v>
       </c>
       <c r="F11" t="n">
-        <v>0.59581</v>
+        <v>0.65027</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="H11" t="n">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="I11" t="n">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-28 16:50</t>
+          <t>2025-07-28 19:41</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1290,33 +1290,33 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.26444</v>
+        <v>0.59095</v>
       </c>
       <c r="E12" t="n">
-        <v>1.2683</v>
+        <v>0.59576</v>
       </c>
       <c r="F12" t="n">
-        <v>1.25799</v>
+        <v>0.58178</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="H12" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="I12" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-28 16:07</t>
+          <t>2025-07-28 19:40</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1326,42 +1326,42 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.6543600000000001</v>
+        <v>0.65813</v>
       </c>
       <c r="E13" t="n">
-        <v>0.65788</v>
+        <v>0.65364</v>
       </c>
       <c r="F13" t="n">
-        <v>0.64725</v>
+        <v>0.6622400000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0.91</v>
+        <v>0.65</v>
       </c>
       <c r="I13" t="n">
-        <v>2.02</v>
+        <v>0.92</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-28 16:46</t>
+          <t>2025-07-28 19:24</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1370,22 +1370,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.36578</v>
+        <v>1.27136</v>
       </c>
       <c r="E14" t="n">
-        <v>1.36114</v>
+        <v>1.26819</v>
       </c>
       <c r="F14" t="n">
-        <v>1.37219</v>
+        <v>1.27863</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.73</v>
+        <v>0.82</v>
       </c>
       <c r="I14" t="n">
-        <v>1.38</v>
+        <v>2.3</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1396,52 +1396,52 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-28 16:04</t>
+          <t>2025-07-28 19:24</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.09923</v>
+        <v>0.87943</v>
       </c>
       <c r="E15" t="n">
-        <v>1.10336</v>
+        <v>0.87619</v>
       </c>
       <c r="F15" t="n">
-        <v>1.09421</v>
+        <v>0.88415</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0.71</v>
+        <v>0.88</v>
       </c>
       <c r="I15" t="n">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-28 16:55</t>
+          <t>2025-07-28 19:21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1450,26 +1450,26 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.87915</v>
+        <v>1.26355</v>
       </c>
       <c r="E16" t="n">
-        <v>0.88223</v>
+        <v>1.26715</v>
       </c>
       <c r="F16" t="n">
-        <v>0.87376</v>
+        <v>1.25387</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="I16" t="n">
-        <v>1.75</v>
+        <v>2.69</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>

--- a/signal_output/genx_signals.xlsx
+++ b/signal_output/genx_signals.xlsx
@@ -55,14 +55,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,7 +535,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 19:44</t>
+          <t>2025-07-28 19:46</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -545,28 +545,28 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.6569199999999999</v>
+        <v>0.6591399999999999</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.65464</v>
+        <v>0.66237</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.66323</v>
+        <v>0.6515</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>77.0%</t>
+          <t>74.0%</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>2.77</v>
+        <v>2.37</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 19:29</t>
+          <t>2025-07-28 19:34</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -587,28 +587,28 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.36116</v>
+        <v>1.36221</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.35649</v>
+        <v>1.36531</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.36818</v>
+        <v>1.3559</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>68.0%</t>
+          <t>86.0%</t>
         </is>
       </c>
       <c r="I3" s="2" t="n">
-        <v>1.51</v>
+        <v>2.03</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
@@ -619,38 +619,38 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 19:24</t>
+          <t>2025-07-28 19:54</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
+          <t>NZDUSD</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>SELL</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.27154</v>
+        <v>0.58913</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.27653</v>
+        <v>0.59282</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.26573</v>
+        <v>0.57921</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0.08</v>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>91.0%</t>
+          <t>89.0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1.16</v>
+        <v>2.69</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
@@ -661,40 +661,82 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 19:40</t>
+          <t>2025-07-28 19:11</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>BUY</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.65813</v>
+        <v>1.26699</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.65364</v>
+        <v>1.26497</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.6622400000000001</v>
+        <v>1.27588</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>65.0%</t>
+          <t>71.0%</t>
         </is>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.92</v>
+        <v>4.42</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-28 19:08</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>149.11418</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>149.31518</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>148.20714</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>66.0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
@@ -743,7 +785,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -753,7 +795,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -763,7 +805,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -774,7 +816,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>79.6%</t>
+          <t>79.2%</t>
         </is>
       </c>
     </row>
@@ -786,7 +828,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.40</t>
         </is>
       </c>
     </row>
@@ -798,7 +840,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-28 19:25:28</t>
+          <t>2025-07-28 19:35:29</t>
         </is>
       </c>
     </row>
@@ -876,7 +918,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-28 19:44</t>
+          <t>2025-07-28 19:46</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -886,26 +928,26 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6569199999999999</v>
+        <v>0.6591399999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.65464</v>
+        <v>0.66237</v>
       </c>
       <c r="F2" t="n">
-        <v>0.66323</v>
+        <v>0.6515</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="I2" t="n">
-        <v>2.77</v>
+        <v>2.37</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -916,47 +958,47 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-28 19:29</t>
+          <t>2025-07-28 19:55</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.36116</v>
+        <v>1.2672</v>
       </c>
       <c r="E3" t="n">
-        <v>1.35649</v>
+        <v>1.27119</v>
       </c>
       <c r="F3" t="n">
-        <v>1.36818</v>
+        <v>1.25817</v>
       </c>
       <c r="G3" t="n">
         <v>0.09</v>
       </c>
       <c r="H3" t="n">
-        <v>0.68</v>
+        <v>0.86</v>
       </c>
       <c r="I3" t="n">
-        <v>1.51</v>
+        <v>2.27</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-28 19:38</t>
+          <t>2025-07-28 19:34</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -966,42 +1008,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.36194</v>
+        <v>1.36221</v>
       </c>
       <c r="E4" t="n">
-        <v>1.35947</v>
+        <v>1.36531</v>
       </c>
       <c r="F4" t="n">
-        <v>1.3684</v>
+        <v>1.3559</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.77</v>
+        <v>0.86</v>
       </c>
       <c r="I4" t="n">
-        <v>2.61</v>
+        <v>2.03</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-28 19:24</t>
+          <t>2025-07-28 19:45</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1010,62 +1052,62 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.27154</v>
+        <v>0.65622</v>
       </c>
       <c r="E5" t="n">
-        <v>1.27653</v>
+        <v>0.6601</v>
       </c>
       <c r="F5" t="n">
-        <v>1.26573</v>
+        <v>0.64627</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0.91</v>
       </c>
       <c r="I5" t="n">
-        <v>1.16</v>
+        <v>2.56</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-28 19:34</t>
+          <t>2025-07-28 19:15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>150.00672</v>
+        <v>0.58906</v>
       </c>
       <c r="E6" t="n">
-        <v>149.69719</v>
+        <v>0.59294</v>
       </c>
       <c r="F6" t="n">
-        <v>150.70286</v>
+        <v>0.5839</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="H6" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="I6" t="n">
-        <v>2.25</v>
+        <v>1.33</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -1076,12 +1118,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-28 19:02</t>
+          <t>2025-07-28 20:02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1090,38 +1132,38 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.27111</v>
+        <v>0.88078</v>
       </c>
       <c r="E7" t="n">
-        <v>1.26667</v>
+        <v>0.87585</v>
       </c>
       <c r="F7" t="n">
-        <v>1.28048</v>
+        <v>0.88957</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="H7" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="I7" t="n">
-        <v>2.11</v>
+        <v>1.78</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-28 19:11</t>
+          <t>2025-07-28 19:59</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1130,22 +1172,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.58896</v>
+        <v>1.3664</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5866</v>
+        <v>1.36228</v>
       </c>
       <c r="F8" t="n">
-        <v>0.59733</v>
+        <v>1.37606</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="H8" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="I8" t="n">
-        <v>3.56</v>
+        <v>2.34</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1156,12 +1198,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-28 19:03</t>
+          <t>2025-07-28 19:54</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1170,38 +1212,38 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.10897</v>
+        <v>0.58913</v>
       </c>
       <c r="E9" t="n">
-        <v>1.11237</v>
+        <v>0.59282</v>
       </c>
       <c r="F9" t="n">
-        <v>1.10414</v>
+        <v>0.57921</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H9" t="n">
-        <v>0.74</v>
+        <v>0.89</v>
       </c>
       <c r="I9" t="n">
-        <v>1.42</v>
+        <v>2.69</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-07-28 19:02</t>
+          <t>2025-07-28 19:27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1210,38 +1252,38 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.65579</v>
+        <v>0.58736</v>
       </c>
       <c r="E10" t="n">
-        <v>0.65228</v>
+        <v>0.58366</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6625799999999999</v>
+        <v>0.59299</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="I10" t="n">
-        <v>1.94</v>
+        <v>1.52</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-28 19:21</t>
+          <t>2025-07-28 19:37</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1250,38 +1292,38 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.65563</v>
+        <v>1.09978</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6601</v>
+        <v>1.10314</v>
       </c>
       <c r="F11" t="n">
-        <v>0.65027</v>
+        <v>1.09483</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="H11" t="n">
-        <v>0.89</v>
+        <v>0.7</v>
       </c>
       <c r="I11" t="n">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-28 19:41</t>
+          <t>2025-07-28 20:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1290,22 +1332,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.59095</v>
+        <v>0.65556</v>
       </c>
       <c r="E12" t="n">
-        <v>0.59576</v>
+        <v>0.65854</v>
       </c>
       <c r="F12" t="n">
-        <v>0.58178</v>
+        <v>0.6476499999999999</v>
       </c>
       <c r="G12" t="n">
         <v>0.02</v>
       </c>
       <c r="H12" t="n">
-        <v>0.91</v>
+        <v>0.77</v>
       </c>
       <c r="I12" t="n">
-        <v>1.91</v>
+        <v>2.66</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1316,12 +1358,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-28 19:40</t>
+          <t>2025-07-28 19:12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1330,33 +1372,33 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.65813</v>
+        <v>1.36078</v>
       </c>
       <c r="E13" t="n">
-        <v>0.65364</v>
+        <v>1.3558</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6622400000000001</v>
+        <v>1.36569</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.65</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-28 19:24</t>
+          <t>2025-07-28 19:11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1370,102 +1412,102 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.27136</v>
+        <v>1.26699</v>
       </c>
       <c r="E14" t="n">
-        <v>1.26819</v>
+        <v>1.26497</v>
       </c>
       <c r="F14" t="n">
-        <v>1.27863</v>
+        <v>1.27588</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="H14" t="n">
-        <v>0.82</v>
+        <v>0.71</v>
       </c>
       <c r="I14" t="n">
-        <v>2.3</v>
+        <v>4.42</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-28 19:24</t>
+          <t>2025-07-28 19:08</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.87943</v>
+        <v>149.11418</v>
       </c>
       <c r="E15" t="n">
-        <v>0.87619</v>
+        <v>149.31518</v>
       </c>
       <c r="F15" t="n">
-        <v>0.88415</v>
+        <v>148.20714</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.88</v>
+        <v>0.66</v>
       </c>
       <c r="I15" t="n">
-        <v>1.45</v>
+        <v>4.51</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-28 19:21</t>
+          <t>2025-07-28 19:52</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.26355</v>
+        <v>0.88032</v>
       </c>
       <c r="E16" t="n">
-        <v>1.26715</v>
+        <v>0.87825</v>
       </c>
       <c r="F16" t="n">
-        <v>1.25387</v>
+        <v>0.8867</v>
       </c>
       <c r="G16" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>2.69</v>
+        <v>3.08</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>

--- a/signal_output/genx_signals.xlsx
+++ b/signal_output/genx_signals.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,12 +535,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 19:46</t>
+          <t>2025-07-28 20:02</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -549,24 +549,24 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.6591399999999999</v>
+        <v>0.88091</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.66237</v>
+        <v>0.88518</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.6515</v>
+        <v>0.87119</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>74.0%</t>
+          <t>87.0%</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
@@ -577,38 +577,38 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 19:34</t>
+          <t>2025-07-28 20:04</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>USDCAD</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>SELL</t>
+          <t>NZDUSD</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.36221</v>
+        <v>0.59179</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.36531</v>
+        <v>0.58828</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.3559</v>
+        <v>0.5992</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>86.0%</t>
+          <t>84.0%</t>
         </is>
       </c>
       <c r="I3" s="2" t="n">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
@@ -619,38 +619,38 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 19:54</t>
+          <t>2025-07-28 19:53</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>SELL</t>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.58913</v>
+        <v>150.15321</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.59282</v>
+        <v>149.91022</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0.57921</v>
+        <v>150.6297</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>89.0%</t>
+          <t>82.0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="n">
-        <v>2.69</v>
+        <v>1.96</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
@@ -661,38 +661,38 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 19:11</t>
+          <t>2025-07-28 19:28</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>BUY</t>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.26699</v>
+        <v>148.8192</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.26497</v>
+        <v>149.03316</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.27588</v>
+        <v>148.41725</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>71.0%</t>
+          <t>83.0%</t>
         </is>
       </c>
       <c r="I5" s="2" t="n">
-        <v>4.42</v>
+        <v>1.88</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
@@ -703,12 +703,12 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 19:08</t>
+          <t>2025-07-28 20:02</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -717,26 +717,110 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>149.11418</v>
+        <v>1.37045</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>149.31518</v>
+        <v>1.37409</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>148.20714</v>
+        <v>1.36562</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>66.0%</t>
+          <t>68.0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="n">
-        <v>4.51</v>
+        <v>1.33</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-28 19:17</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>GBPUSD</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>1.27183</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1.2696</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>1.28111</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>80.0%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-28 19:36</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>USDCHF</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0.8793</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0.87649</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0.88683</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>77.0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
@@ -785,7 +869,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -816,7 +900,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>79.2%</t>
+          <t>78.3%</t>
         </is>
       </c>
     </row>
@@ -828,7 +912,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.54</t>
         </is>
       </c>
     </row>
@@ -840,7 +924,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-28 19:35:29</t>
+          <t>2025-07-28 19:45:30</t>
         </is>
       </c>
     </row>
@@ -918,12 +1002,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-28 19:46</t>
+          <t>2025-07-28 20:02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -932,22 +1016,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6591399999999999</v>
+        <v>0.88091</v>
       </c>
       <c r="E2" t="n">
-        <v>0.66237</v>
+        <v>0.88518</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6515</v>
+        <v>0.87119</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="H2" t="n">
-        <v>0.74</v>
+        <v>0.87</v>
       </c>
       <c r="I2" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -958,47 +1042,47 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-28 19:55</t>
+          <t>2025-07-28 20:04</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.2672</v>
+        <v>0.59179</v>
       </c>
       <c r="E3" t="n">
-        <v>1.27119</v>
+        <v>0.58828</v>
       </c>
       <c r="F3" t="n">
-        <v>1.25817</v>
+        <v>0.5992</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="H3" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="I3" t="n">
-        <v>2.27</v>
+        <v>2.11</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-28 19:34</t>
+          <t>2025-07-28 19:47</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1008,42 +1092,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.36221</v>
+        <v>1.36364</v>
       </c>
       <c r="E4" t="n">
-        <v>1.36531</v>
+        <v>1.3615</v>
       </c>
       <c r="F4" t="n">
-        <v>1.3559</v>
+        <v>1.37179</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H4" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="I4" t="n">
-        <v>2.03</v>
+        <v>3.81</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-28 19:45</t>
+          <t>2025-07-28 19:55</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1052,22 +1136,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.65622</v>
+        <v>1.36515</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6601</v>
+        <v>1.36797</v>
       </c>
       <c r="F5" t="n">
-        <v>0.64627</v>
+        <v>1.36039</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="H5" t="n">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.56</v>
+        <v>1.69</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -1078,132 +1162,132 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-28 19:15</t>
+          <t>2025-07-28 19:53</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.58906</v>
+        <v>150.15321</v>
       </c>
       <c r="E6" t="n">
-        <v>0.59294</v>
+        <v>149.91022</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5839</v>
+        <v>150.6297</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="H6" t="n">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="I6" t="n">
-        <v>1.33</v>
+        <v>1.96</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-28 20:02</t>
+          <t>2025-07-28 19:54</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.88078</v>
+        <v>1.10416</v>
       </c>
       <c r="E7" t="n">
-        <v>0.87585</v>
+        <v>1.10896</v>
       </c>
       <c r="F7" t="n">
-        <v>0.88957</v>
+        <v>1.09589</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="H7" t="n">
-        <v>0.83</v>
+        <v>0.76</v>
       </c>
       <c r="I7" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-28 19:59</t>
+          <t>2025-07-28 19:47</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.3664</v>
+        <v>1.27152</v>
       </c>
       <c r="E8" t="n">
-        <v>1.36228</v>
+        <v>1.27443</v>
       </c>
       <c r="F8" t="n">
-        <v>1.37606</v>
+        <v>1.26464</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="H8" t="n">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="I8" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-28 19:54</t>
+          <t>2025-07-28 19:56</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1212,38 +1296,38 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.58913</v>
+        <v>1.36167</v>
       </c>
       <c r="E9" t="n">
-        <v>0.59282</v>
+        <v>1.36465</v>
       </c>
       <c r="F9" t="n">
-        <v>0.57921</v>
+        <v>1.35637</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="H9" t="n">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="I9" t="n">
-        <v>2.69</v>
+        <v>1.78</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-07-28 19:27</t>
+          <t>2025-07-28 19:46</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1252,38 +1336,38 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.58736</v>
+        <v>1.27579</v>
       </c>
       <c r="E10" t="n">
-        <v>0.58366</v>
+        <v>1.27373</v>
       </c>
       <c r="F10" t="n">
-        <v>0.59299</v>
+        <v>1.28514</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>1.52</v>
+        <v>4.55</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-28 19:37</t>
+          <t>2025-07-28 19:20</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1292,38 +1376,38 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.09978</v>
+        <v>0.88015</v>
       </c>
       <c r="E11" t="n">
-        <v>1.10314</v>
+        <v>0.88296</v>
       </c>
       <c r="F11" t="n">
-        <v>1.09483</v>
+        <v>0.87033</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="I11" t="n">
-        <v>1.48</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-28 20:00</t>
+          <t>2025-07-28 19:28</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1332,33 +1416,33 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.65556</v>
+        <v>148.8192</v>
       </c>
       <c r="E12" t="n">
-        <v>0.65854</v>
+        <v>149.03316</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6476499999999999</v>
+        <v>148.41725</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="I12" t="n">
-        <v>2.66</v>
+        <v>1.88</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-28 19:12</t>
+          <t>2025-07-28 20:02</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1368,106 +1452,106 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.36078</v>
+        <v>1.37045</v>
       </c>
       <c r="E13" t="n">
-        <v>1.3558</v>
+        <v>1.37409</v>
       </c>
       <c r="F13" t="n">
-        <v>1.36569</v>
+        <v>1.36562</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="I13" t="n">
-        <v>0.99</v>
+        <v>1.33</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-28 19:11</t>
+          <t>2025-07-28 19:53</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.26699</v>
+        <v>0.65505</v>
       </c>
       <c r="E14" t="n">
-        <v>1.26497</v>
+        <v>0.6581399999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>1.27588</v>
+        <v>0.64799</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="I14" t="n">
-        <v>4.42</v>
+        <v>2.28</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-28 19:08</t>
+          <t>2025-07-28 19:17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>149.11418</v>
+        <v>1.27183</v>
       </c>
       <c r="E15" t="n">
-        <v>149.31518</v>
+        <v>1.2696</v>
       </c>
       <c r="F15" t="n">
-        <v>148.20714</v>
+        <v>1.28111</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="I15" t="n">
-        <v>4.51</v>
+        <v>4.15</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1478,7 +1562,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-28 19:52</t>
+          <t>2025-07-28 19:36</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1492,26 +1576,26 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.88032</v>
+        <v>0.8793</v>
       </c>
       <c r="E16" t="n">
-        <v>0.87825</v>
+        <v>0.87649</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8867</v>
+        <v>0.88683</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="I16" t="n">
-        <v>3.08</v>
+        <v>2.68</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>

--- a/signal_output/genx_signals.xlsx
+++ b/signal_output/genx_signals.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,12 +535,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 20:02</t>
+          <t>2025-07-28 19:22</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>XAUCHF</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -549,24 +549,24 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.88091</v>
+        <v>2334.21327</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.88518</v>
+        <v>2334.21685</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.87119</v>
+        <v>2334.20676</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>87.0%</t>
+          <t>93.0%</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>2.27</v>
+        <v>1.82</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
@@ -577,12 +577,12 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 20:04</t>
+          <t>2025-07-28 19:57</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -591,24 +591,24 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.59179</v>
+        <v>149.85394</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.58828</v>
+        <v>149.37612</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0.5992</v>
+        <v>150.65947</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0.04</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>84.0%</t>
+          <t>86.0%</t>
         </is>
       </c>
       <c r="I3" s="2" t="n">
-        <v>2.11</v>
+        <v>1.69</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
@@ -619,12 +619,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 19:53</t>
+          <t>2025-07-28 20:14</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>XAUCHF</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -633,24 +633,24 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>150.15321</v>
+        <v>2330.99258</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>149.91022</v>
+        <v>2330.98966</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>150.6297</v>
+        <v>2331.00069</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>82.0%</t>
+          <t>87.0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1.96</v>
+        <v>2.78</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
@@ -661,38 +661,38 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 19:28</t>
+          <t>2025-07-28 20:08</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>USDJPY</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>SELL</t>
+          <t>XAUEUR</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>148.8192</v>
+        <v>2425.36463</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>149.03316</v>
+        <v>2425.36158</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>148.41725</v>
+        <v>2425.37288</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>83.0%</t>
+          <t>85.0%</t>
         </is>
       </c>
       <c r="I5" s="2" t="n">
-        <v>1.88</v>
+        <v>2.7</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
@@ -703,12 +703,12 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 20:02</t>
+          <t>2025-07-28 19:55</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -717,24 +717,24 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.37045</v>
+        <v>148.85479</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1.37409</v>
+        <v>149.12514</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.36562</v>
+        <v>147.95812</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68.0%</t>
+          <t>88.0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1.33</v>
+        <v>3.32</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
@@ -745,38 +745,38 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 19:17</t>
+          <t>2025-07-28 20:19</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>BUY</t>
+          <t>USDCHF</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.27183</v>
+        <v>0.88023</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1.2696</v>
+        <v>0.88297</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.28111</v>
+        <v>0.87613</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>90.0%</t>
         </is>
       </c>
       <c r="I7" s="2" t="n">
-        <v>4.15</v>
+        <v>1.49</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
@@ -787,12 +787,12 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 19:36</t>
+          <t>2025-07-28 20:01</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -801,26 +801,68 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.8793</v>
+        <v>0.66044</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.87649</v>
+        <v>0.65635</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0.88683</v>
+        <v>0.66739</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>77.0%</t>
+          <t>81.0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="n">
-        <v>2.68</v>
+        <v>1.7</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-28 19:56</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>2657.19974</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>2657.20194</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>2657.19485</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>78.0%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
@@ -869,7 +911,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -900,7 +942,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>78.3%</t>
+          <t>81.1%</t>
         </is>
       </c>
     </row>
@@ -912,7 +954,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.15</t>
         </is>
       </c>
     </row>
@@ -924,7 +966,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-28 19:45:30</t>
+          <t>2025-07-28 19:51:42</t>
         </is>
       </c>
     </row>
@@ -1002,76 +1044,76 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-28 20:02</t>
+          <t>2025-07-28 20:07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>XAUUSD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.88091</v>
+        <v>2639.10754</v>
       </c>
       <c r="E2" t="n">
-        <v>0.88518</v>
+        <v>2639.10473</v>
       </c>
       <c r="F2" t="n">
-        <v>0.87119</v>
+        <v>2639.11523</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="H2" t="n">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
       <c r="I2" t="n">
-        <v>2.27</v>
+        <v>2.73</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-28 20:04</t>
+          <t>2025-07-28 19:22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>XAUCHF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.59179</v>
+        <v>2334.21327</v>
       </c>
       <c r="E3" t="n">
-        <v>0.58828</v>
+        <v>2334.21685</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5992</v>
+        <v>2334.20676</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.84</v>
+        <v>0.93</v>
       </c>
       <c r="I3" t="n">
-        <v>2.11</v>
+        <v>1.82</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -1082,92 +1124,92 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-28 19:47</t>
+          <t>2025-07-28 19:43</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.36364</v>
+        <v>148.7955</v>
       </c>
       <c r="E4" t="n">
-        <v>1.3615</v>
+        <v>149.02496</v>
       </c>
       <c r="F4" t="n">
-        <v>1.37179</v>
+        <v>148.32316</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="I4" t="n">
-        <v>3.81</v>
+        <v>2.06</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-28 19:55</t>
+          <t>2025-07-28 19:57</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.36515</v>
+        <v>149.85394</v>
       </c>
       <c r="E5" t="n">
-        <v>1.36797</v>
+        <v>149.37612</v>
       </c>
       <c r="F5" t="n">
-        <v>1.36039</v>
+        <v>150.65947</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7</v>
+        <v>0.86</v>
       </c>
       <c r="I5" t="n">
         <v>1.69</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-28 19:53</t>
+          <t>2025-07-28 20:14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>XAUCHF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1176,22 +1218,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>150.15321</v>
+        <v>2330.99258</v>
       </c>
       <c r="E6" t="n">
-        <v>149.91022</v>
+        <v>2330.98966</v>
       </c>
       <c r="F6" t="n">
-        <v>150.6297</v>
+        <v>2331.00069</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="H6" t="n">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="I6" t="n">
-        <v>1.96</v>
+        <v>2.78</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -1202,12 +1244,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-28 19:54</t>
+          <t>2025-07-28 20:04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1216,102 +1258,102 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.10416</v>
+        <v>0.58889</v>
       </c>
       <c r="E7" t="n">
-        <v>1.10896</v>
+        <v>0.59119</v>
       </c>
       <c r="F7" t="n">
-        <v>1.09589</v>
+        <v>0.58034</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="H7" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="I7" t="n">
-        <v>1.72</v>
+        <v>3.72</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-28 19:47</t>
+          <t>2025-07-28 20:08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>XAUEUR</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.27152</v>
+        <v>2425.36463</v>
       </c>
       <c r="E8" t="n">
-        <v>1.27443</v>
+        <v>2425.36158</v>
       </c>
       <c r="F8" t="n">
-        <v>1.26464</v>
+        <v>2425.37288</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H8" t="n">
-        <v>0.68</v>
+        <v>0.85</v>
       </c>
       <c r="I8" t="n">
-        <v>2.36</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-28 19:56</t>
+          <t>2025-07-28 19:39</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>XAUAUD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.36167</v>
+        <v>4032.93353</v>
       </c>
       <c r="E9" t="n">
-        <v>1.36465</v>
+        <v>4032.9298</v>
       </c>
       <c r="F9" t="n">
-        <v>1.35637</v>
+        <v>4032.93825</v>
       </c>
       <c r="G9" t="n">
         <v>0.03</v>
       </c>
       <c r="H9" t="n">
-        <v>0.82</v>
+        <v>0.65</v>
       </c>
       <c r="I9" t="n">
-        <v>1.78</v>
+        <v>1.26</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1322,52 +1364,52 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-07-28 19:46</t>
+          <t>2025-07-28 19:47</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.27579</v>
+        <v>149.13696</v>
       </c>
       <c r="E10" t="n">
-        <v>1.27373</v>
+        <v>149.62288</v>
       </c>
       <c r="F10" t="n">
-        <v>1.28514</v>
+        <v>148.65307</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="I10" t="n">
-        <v>4.55</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-28 19:20</t>
+          <t>2025-07-28 19:55</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1376,38 +1418,38 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.88015</v>
+        <v>148.85479</v>
       </c>
       <c r="E11" t="n">
-        <v>0.88296</v>
+        <v>149.12514</v>
       </c>
       <c r="F11" t="n">
-        <v>0.87033</v>
+        <v>147.95812</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H11" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>3.32</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-28 19:28</t>
+          <t>2025-07-28 20:19</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1416,22 +1458,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>148.8192</v>
+        <v>0.88023</v>
       </c>
       <c r="E12" t="n">
-        <v>149.03316</v>
+        <v>0.88297</v>
       </c>
       <c r="F12" t="n">
-        <v>148.41725</v>
+        <v>0.87613</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="H12" t="n">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="I12" t="n">
-        <v>1.88</v>
+        <v>1.49</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1442,36 +1484,36 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-28 20:02</t>
+          <t>2025-07-28 20:01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.37045</v>
+        <v>0.66044</v>
       </c>
       <c r="E13" t="n">
-        <v>1.37409</v>
+        <v>0.65635</v>
       </c>
       <c r="F13" t="n">
-        <v>1.36562</v>
+        <v>0.66739</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H13" t="n">
-        <v>0.68</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>1.33</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1482,12 +1524,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-28 19:53</t>
+          <t>2025-07-28 20:01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>XAUEUR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1496,33 +1538,33 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.65505</v>
+        <v>2412.71651</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6581399999999999</v>
+        <v>2412.71944</v>
       </c>
       <c r="F14" t="n">
-        <v>0.64799</v>
+        <v>2412.71005</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7</v>
+        <v>0.92</v>
       </c>
       <c r="I14" t="n">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-28 19:17</t>
+          <t>2025-07-28 19:25</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1532,66 +1574,66 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.27183</v>
+        <v>1.26529</v>
       </c>
       <c r="E15" t="n">
-        <v>1.2696</v>
+        <v>1.26994</v>
       </c>
       <c r="F15" t="n">
-        <v>1.28111</v>
+        <v>1.25782</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="I15" t="n">
-        <v>4.15</v>
+        <v>1.6</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-28 19:36</t>
+          <t>2025-07-28 19:56</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>XAUUSD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.8793</v>
+        <v>2657.19974</v>
       </c>
       <c r="E16" t="n">
-        <v>0.87649</v>
+        <v>2657.20194</v>
       </c>
       <c r="F16" t="n">
-        <v>0.88683</v>
+        <v>2657.19485</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H16" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="I16" t="n">
-        <v>2.68</v>
+        <v>2.23</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>

--- a/signal_output/genx_signals.xlsx
+++ b/signal_output/genx_signals.xlsx
@@ -55,14 +55,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,38 +535,38 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 19:22</t>
+          <t>2025-07-28 20:18</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>XAUCHF</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2334.21327</v>
+        <v>1.10095</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2334.21685</v>
+        <v>1.09751</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2334.20676</v>
+        <v>1.10812</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>93.0%</t>
+          <t>76.0%</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
@@ -577,292 +577,40 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 19:57</t>
+          <t>2025-07-28 20:04</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>XAUUSD</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>149.85394</v>
+        <v>2646.76589</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>149.37612</v>
+        <v>2646.76804</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>150.65947</v>
+        <v>2646.75787</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>86.0%</t>
+          <t>76.0%</t>
         </is>
       </c>
       <c r="I3" s="2" t="n">
-        <v>1.69</v>
+        <v>3.73</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-28 20:14</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>XAUCHF</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>2330.99258</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>2330.98966</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>2331.00069</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>87.0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-28 20:08</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>XAUEUR</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>2425.36463</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>2425.36158</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>2425.37288</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>85.0%</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-28 19:55</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>USDJPY</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>148.85479</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>149.12514</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>147.95812</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>88.0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-28 20:19</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>USDCHF</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0.88023</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0.88297</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0.87613</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>90.0%</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-28 20:01</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>AUDUSD</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0.66044</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0.65635</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0.66739</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>81.0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-28 19:56</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>XAUUSD</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>2657.19974</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>2657.20194</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>2657.19485</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>78.0%</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
@@ -911,7 +659,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -921,7 +669,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +679,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -942,7 +690,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>81.1%</t>
+          <t>84.9%</t>
         </is>
       </c>
     </row>
@@ -954,7 +702,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.29</t>
         </is>
       </c>
     </row>
@@ -966,7 +714,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-28 19:51:42</t>
+          <t>2025-07-28 19:56:12</t>
         </is>
       </c>
     </row>
@@ -1044,12 +792,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-28 20:07</t>
+          <t>2025-07-28 19:57</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>XAUUSD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1058,38 +806,38 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2639.10754</v>
+        <v>1.10417</v>
       </c>
       <c r="E2" t="n">
-        <v>2639.10473</v>
+        <v>1.09996</v>
       </c>
       <c r="F2" t="n">
-        <v>2639.11523</v>
+        <v>1.11413</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="H2" t="n">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="I2" t="n">
-        <v>2.73</v>
+        <v>2.36</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-28 19:22</t>
+          <t>2025-07-28 19:27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>XAUCHF</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1098,38 +846,38 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2334.21327</v>
+        <v>150.17889</v>
       </c>
       <c r="E3" t="n">
-        <v>2334.21685</v>
+        <v>150.67464</v>
       </c>
       <c r="F3" t="n">
-        <v>2334.20676</v>
+        <v>149.39819</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="I3" t="n">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-28 19:43</t>
+          <t>2025-07-28 20:06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>XAUGBP</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1138,33 +886,33 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>148.7955</v>
+        <v>2105.81156</v>
       </c>
       <c r="E4" t="n">
-        <v>149.02496</v>
+        <v>2105.81421</v>
       </c>
       <c r="F4" t="n">
-        <v>148.32316</v>
+        <v>2105.80399</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="H4" t="n">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="I4" t="n">
-        <v>2.06</v>
+        <v>2.85</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-28 19:57</t>
+          <t>2025-07-28 20:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1178,33 +926,33 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>149.85394</v>
+        <v>150.23958</v>
       </c>
       <c r="E5" t="n">
-        <v>149.37612</v>
+        <v>150.00475</v>
       </c>
       <c r="F5" t="n">
-        <v>150.65947</v>
+        <v>150.65111</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="I5" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-28 20:14</t>
+          <t>2025-07-28 19:52</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1218,38 +966,38 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2330.99258</v>
+        <v>2345.83131</v>
       </c>
       <c r="E6" t="n">
-        <v>2330.98966</v>
+        <v>2345.82699</v>
       </c>
       <c r="F6" t="n">
-        <v>2331.00069</v>
+        <v>2345.83617</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="I6" t="n">
-        <v>2.78</v>
+        <v>1.12</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-28 20:04</t>
+          <t>2025-07-28 19:34</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1258,22 +1006,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.58889</v>
+        <v>1.10132</v>
       </c>
       <c r="E7" t="n">
-        <v>0.59119</v>
+        <v>1.10507</v>
       </c>
       <c r="F7" t="n">
-        <v>0.58034</v>
+        <v>1.09573</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="I7" t="n">
-        <v>3.72</v>
+        <v>1.49</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -1284,12 +1032,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-28 20:08</t>
+          <t>2025-07-28 20:18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>XAUEUR</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1298,22 +1046,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2425.36463</v>
+        <v>1.10095</v>
       </c>
       <c r="E8" t="n">
-        <v>2425.36158</v>
+        <v>1.09751</v>
       </c>
       <c r="F8" t="n">
-        <v>2425.37288</v>
+        <v>1.10812</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="H8" t="n">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>2.09</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1324,36 +1072,36 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-28 19:39</t>
+          <t>2025-07-28 19:50</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>XAUAUD</t>
+          <t>XAUGBP</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4032.93353</v>
+        <v>2093.56937</v>
       </c>
       <c r="E9" t="n">
-        <v>4032.9298</v>
+        <v>2093.57231</v>
       </c>
       <c r="F9" t="n">
-        <v>4032.93825</v>
+        <v>2093.5647</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H9" t="n">
-        <v>0.65</v>
+        <v>0.79</v>
       </c>
       <c r="I9" t="n">
-        <v>1.26</v>
+        <v>1.59</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1364,172 +1112,172 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-07-28 19:47</t>
+          <t>2025-07-28 19:42</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>149.13696</v>
+        <v>0.59234</v>
       </c>
       <c r="E10" t="n">
-        <v>149.62288</v>
+        <v>0.58994</v>
       </c>
       <c r="F10" t="n">
-        <v>148.65307</v>
+        <v>0.60129</v>
       </c>
       <c r="G10" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.68</v>
+        <v>0.92</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>3.74</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-28 19:55</t>
+          <t>2025-07-28 19:30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>148.85479</v>
+        <v>0.5891999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>149.12514</v>
+        <v>0.58645</v>
       </c>
       <c r="F11" t="n">
-        <v>147.95812</v>
+        <v>0.59809</v>
       </c>
       <c r="G11" t="n">
         <v>0.08</v>
       </c>
       <c r="H11" t="n">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="I11" t="n">
-        <v>3.32</v>
+        <v>3.24</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-28 20:19</t>
+          <t>2025-07-28 20:04</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>XAUCAD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.88023</v>
+        <v>3602.70636</v>
       </c>
       <c r="E12" t="n">
-        <v>0.88297</v>
+        <v>3602.70329</v>
       </c>
       <c r="F12" t="n">
-        <v>0.87613</v>
+        <v>3602.71461</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>1.49</v>
+        <v>2.68</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-28 20:01</t>
+          <t>2025-07-28 20:03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.66044</v>
+        <v>0.87935</v>
       </c>
       <c r="E13" t="n">
-        <v>0.65635</v>
+        <v>0.8829900000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.66739</v>
+        <v>0.87307</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-28 20:01</t>
+          <t>2025-07-28 19:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>XAUEUR</t>
+          <t>XAUCHF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1538,22 +1286,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2412.71651</v>
+        <v>2341.82489</v>
       </c>
       <c r="E14" t="n">
-        <v>2412.71944</v>
+        <v>2341.82898</v>
       </c>
       <c r="F14" t="n">
-        <v>2412.71005</v>
+        <v>2341.81819</v>
       </c>
       <c r="G14" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="H14" t="n">
-        <v>0.92</v>
+        <v>0.76</v>
       </c>
       <c r="I14" t="n">
-        <v>2.21</v>
+        <v>1.64</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1564,36 +1312,36 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-28 19:25</t>
+          <t>2025-07-28 20:13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.26529</v>
+        <v>0.88243</v>
       </c>
       <c r="E15" t="n">
-        <v>1.26994</v>
+        <v>0.8788899999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>1.25782</v>
+        <v>0.89208</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="H15" t="n">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>1.6</v>
+        <v>2.73</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1604,7 +1352,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-28 19:56</t>
+          <t>2025-07-28 20:04</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1618,22 +1366,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2657.19974</v>
+        <v>2646.76589</v>
       </c>
       <c r="E16" t="n">
-        <v>2657.20194</v>
+        <v>2646.76804</v>
       </c>
       <c r="F16" t="n">
-        <v>2657.19485</v>
+        <v>2646.75787</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="I16" t="n">
-        <v>2.23</v>
+        <v>3.73</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>

--- a/signal_output/genx_signals.xlsx
+++ b/signal_output/genx_signals.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,12 +535,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 20:18</t>
+          <t>2025-07-28 20:03</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>XAUCHF</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -549,24 +549,24 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.10095</v>
+        <v>2334.28355</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.09751</v>
+        <v>2334.27912</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.10812</v>
+        <v>2334.29131</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>76.0%</t>
+          <t>84.0%</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>2.09</v>
+        <v>1.75</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
@@ -577,40 +577,166 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 20:04</t>
+          <t>2025-07-28 19:51</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>XAUUSD</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
+          <t>NZDUSD</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.59221</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0.58799</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0.59656</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>76.0%</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-28 19:43</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>XAUCHF</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>SELL</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>2646.76589</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>2646.76804</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>2646.75787</v>
-      </c>
-      <c r="G3" s="2" t="n">
+      <c r="D4" s="2" t="n">
+        <v>2336.548</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>2336.55109</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>2336.54131</v>
+      </c>
+      <c r="G4" s="2" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>76.0%</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>87.0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-28 20:08</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>149.07482</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>149.36232</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>148.34779</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>85.0%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-28 20:24</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>149.10511</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>148.847</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>150.01508</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>81.0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
@@ -659,7 +785,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -690,7 +816,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>84.9%</t>
+          <t>85.2%</t>
         </is>
       </c>
     </row>
@@ -702,7 +828,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.07</t>
         </is>
       </c>
     </row>
@@ -714,7 +840,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-28 19:56:12</t>
+          <t>2025-07-28 20:00:31</t>
         </is>
       </c>
     </row>
@@ -792,12 +918,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-28 19:57</t>
+          <t>2025-07-28 20:10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -806,38 +932,38 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.10417</v>
+        <v>149.43539</v>
       </c>
       <c r="E2" t="n">
-        <v>1.09996</v>
+        <v>149.15827</v>
       </c>
       <c r="F2" t="n">
-        <v>1.11413</v>
+        <v>150.33336</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="H2" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="I2" t="n">
-        <v>2.36</v>
+        <v>3.24</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-28 19:27</t>
+          <t>2025-07-28 20:10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>XAUGBP</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -846,22 +972,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>150.17889</v>
+        <v>2105.39076</v>
       </c>
       <c r="E3" t="n">
-        <v>150.67464</v>
+        <v>2105.39337</v>
       </c>
       <c r="F3" t="n">
-        <v>149.39819</v>
+        <v>2105.38149</v>
       </c>
       <c r="G3" t="n">
         <v>0.05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="I3" t="n">
-        <v>1.57</v>
+        <v>3.55</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -872,52 +998,52 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-28 20:06</t>
+          <t>2025-07-28 20:03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>XAUGBP</t>
+          <t>XAUCHF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2105.81156</v>
+        <v>2334.28355</v>
       </c>
       <c r="E4" t="n">
-        <v>2105.81421</v>
+        <v>2334.27912</v>
       </c>
       <c r="F4" t="n">
-        <v>2105.80399</v>
+        <v>2334.29131</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="I4" t="n">
-        <v>2.85</v>
+        <v>1.75</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-28 20:00</t>
+          <t>2025-07-28 19:51</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -926,38 +1052,38 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>150.23958</v>
+        <v>0.59221</v>
       </c>
       <c r="E5" t="n">
-        <v>150.00475</v>
+        <v>0.58799</v>
       </c>
       <c r="F5" t="n">
-        <v>150.65111</v>
+        <v>0.59656</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="H5" t="n">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
       <c r="I5" t="n">
-        <v>1.75</v>
+        <v>1.03</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-28 19:52</t>
+          <t>2025-07-28 20:01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>XAUCHF</t>
+          <t>XAUAUD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -966,22 +1092,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2345.83131</v>
+        <v>4068.58247</v>
       </c>
       <c r="E6" t="n">
-        <v>2345.82699</v>
+        <v>4068.57785</v>
       </c>
       <c r="F6" t="n">
-        <v>2345.83617</v>
+        <v>4068.5889</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="I6" t="n">
-        <v>1.12</v>
+        <v>1.39</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -992,12 +1118,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-28 19:34</t>
+          <t>2025-07-28 19:43</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>XAUCHF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1006,33 +1132,33 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.10132</v>
+        <v>2336.548</v>
       </c>
       <c r="E7" t="n">
-        <v>1.10507</v>
+        <v>2336.55109</v>
       </c>
       <c r="F7" t="n">
-        <v>1.09573</v>
+        <v>2336.54131</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="I7" t="n">
-        <v>1.49</v>
+        <v>2.16</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-28 20:18</t>
+          <t>2025-07-28 19:41</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1046,73 +1172,73 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.10095</v>
+        <v>1.10507</v>
       </c>
       <c r="E8" t="n">
-        <v>1.09751</v>
+        <v>1.1005</v>
       </c>
       <c r="F8" t="n">
-        <v>1.10812</v>
+        <v>1.10936</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="H8" t="n">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="I8" t="n">
-        <v>2.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-28 19:50</t>
+          <t>2025-07-28 20:19</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>XAUGBP</t>
+          <t>XAUUSD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2093.56937</v>
+        <v>2644.48224</v>
       </c>
       <c r="E9" t="n">
-        <v>2093.57231</v>
+        <v>2644.47753</v>
       </c>
       <c r="F9" t="n">
-        <v>2093.5647</v>
+        <v>2644.48859</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.79</v>
+        <v>0.95</v>
       </c>
       <c r="I9" t="n">
-        <v>1.59</v>
+        <v>1.35</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-07-28 19:42</t>
+          <t>2025-07-28 19:44</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1122,26 +1248,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.59234</v>
+        <v>0.58648</v>
       </c>
       <c r="E10" t="n">
-        <v>0.58994</v>
+        <v>0.58863</v>
       </c>
       <c r="F10" t="n">
-        <v>0.60129</v>
+        <v>0.58035</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="H10" t="n">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>3.74</v>
+        <v>2.85</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1152,76 +1278,76 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-28 19:30</t>
+          <t>2025-07-28 20:08</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.5891999999999999</v>
+        <v>149.07482</v>
       </c>
       <c r="E11" t="n">
-        <v>0.58645</v>
+        <v>149.36232</v>
       </c>
       <c r="F11" t="n">
-        <v>0.59809</v>
+        <v>148.34779</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="H11" t="n">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="I11" t="n">
-        <v>3.24</v>
+        <v>2.53</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-28 20:04</t>
+          <t>2025-07-28 20:25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>XAUCAD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3602.70636</v>
+        <v>1.36369</v>
       </c>
       <c r="E12" t="n">
-        <v>3602.70329</v>
+        <v>1.36737</v>
       </c>
       <c r="F12" t="n">
-        <v>3602.71461</v>
+        <v>1.35429</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="I12" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1232,52 +1358,52 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-28 20:03</t>
+          <t>2025-07-28 20:24</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.87935</v>
+        <v>149.10511</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8829900000000001</v>
+        <v>148.847</v>
       </c>
       <c r="F13" t="n">
-        <v>0.87307</v>
+        <v>150.01508</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>1.72</v>
+        <v>3.53</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-28 19:30</t>
+          <t>2025-07-28 19:51</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>XAUCHF</t>
+          <t>XAUEUR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1286,62 +1412,62 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2341.82489</v>
+        <v>2422.95788</v>
       </c>
       <c r="E14" t="n">
-        <v>2341.82898</v>
+        <v>2422.96252</v>
       </c>
       <c r="F14" t="n">
-        <v>2341.81819</v>
+        <v>2422.95307</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
       <c r="I14" t="n">
-        <v>1.64</v>
+        <v>1.04</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-28 20:13</t>
+          <t>2025-07-28 19:57</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>XAUUSD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.88243</v>
+        <v>2649.17888</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8788899999999999</v>
+        <v>2649.18361</v>
       </c>
       <c r="F15" t="n">
-        <v>0.89208</v>
+        <v>2649.17293</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="I15" t="n">
-        <v>2.73</v>
+        <v>1.26</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1352,40 +1478,40 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-28 20:04</t>
+          <t>2025-07-28 20:21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>XAUUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2646.76589</v>
+        <v>0.88436</v>
       </c>
       <c r="E16" t="n">
-        <v>2646.76804</v>
+        <v>0.87957</v>
       </c>
       <c r="F16" t="n">
-        <v>2646.75787</v>
+        <v>0.89366</v>
       </c>
       <c r="G16" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
       <c r="I16" t="n">
-        <v>3.73</v>
+        <v>1.94</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>

--- a/signal_output/genx_signals.xlsx
+++ b/signal_output/genx_signals.xlsx
@@ -55,14 +55,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -535,30 +535,30 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 20:03</t>
+          <t>2025-07-28 20:09</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>XAUCHF</t>
+          <t>XAUGBP</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2334.28355</v>
+        <v>2093.51867</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2334.27912</v>
+        <v>2093.52187</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2334.29131</v>
+        <v>2093.5146</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1.75</v>
+        <v>1.27</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
@@ -577,38 +577,38 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 19:51</t>
+          <t>2025-07-28 20:33</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>XAUCAD</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.59221</v>
+        <v>3637.02642</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.58799</v>
+        <v>3637.02962</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0.59656</v>
+        <v>3637.02181</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>76.0%</t>
+          <t>90.0%</t>
         </is>
       </c>
       <c r="I3" s="2" t="n">
-        <v>1.03</v>
+        <v>1.44</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
@@ -619,38 +619,38 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 19:43</t>
+          <t>2025-07-28 20:05</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>XAUCHF</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2336.548</v>
+        <v>1.36249</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2336.55109</v>
+        <v>1.35919</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2336.54131</v>
+        <v>1.37219</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>87.0%</t>
+          <t>84.0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="n">
-        <v>2.16</v>
+        <v>2.94</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
@@ -661,38 +661,38 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 20:08</t>
+          <t>2025-07-28 19:54</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>XAUCHF</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>149.07482</v>
+        <v>2338.51219</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>149.36232</v>
+        <v>2338.50814</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>148.34779</v>
+        <v>2338.52196</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85.0%</t>
+          <t>88.0%</t>
         </is>
       </c>
       <c r="I5" s="2" t="n">
-        <v>2.53</v>
+        <v>2.41</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
@@ -703,38 +703,38 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 20:24</t>
+          <t>2025-07-28 20:39</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>USDJPY</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
+          <t>XAUEUR</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>BUY</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>149.10511</v>
+        <v>2413.91887</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>148.847</v>
+        <v>2413.91527</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>150.01508</v>
+        <v>2413.92515</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>81.0%</t>
+          <t>83.0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="n">
-        <v>3.53</v>
+        <v>1.74</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>85.2%</t>
+          <t>83.8%</t>
         </is>
       </c>
     </row>
@@ -828,7 +828,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.98</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-28 20:00:31</t>
+          <t>2025-07-28 20:23:57</t>
         </is>
       </c>
     </row>
@@ -918,52 +918,52 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-28 20:10</t>
+          <t>2025-07-28 20:09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>XAUGBP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>149.43539</v>
+        <v>2093.51867</v>
       </c>
       <c r="E2" t="n">
-        <v>149.15827</v>
+        <v>2093.52187</v>
       </c>
       <c r="F2" t="n">
-        <v>150.33336</v>
+        <v>2093.5146</v>
       </c>
       <c r="G2" t="n">
         <v>0.04</v>
       </c>
       <c r="H2" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="I2" t="n">
-        <v>3.24</v>
+        <v>1.27</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-28 20:10</t>
+          <t>2025-07-28 20:44</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>XAUGBP</t>
+          <t>XAUEUR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2105.39076</v>
+        <v>2418.08605</v>
       </c>
       <c r="E3" t="n">
-        <v>2105.39337</v>
+        <v>2418.09006</v>
       </c>
       <c r="F3" t="n">
-        <v>2105.38149</v>
+        <v>2418.0814</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="I3" t="n">
-        <v>3.55</v>
+        <v>1.16</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -998,36 +998,36 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-28 20:03</t>
+          <t>2025-07-28 20:33</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>XAUCHF</t>
+          <t>XAUCAD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2334.28355</v>
+        <v>3637.02642</v>
       </c>
       <c r="E4" t="n">
-        <v>2334.27912</v>
+        <v>3637.02962</v>
       </c>
       <c r="F4" t="n">
-        <v>2334.29131</v>
+        <v>3637.02181</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="I4" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -1038,12 +1038,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-28 19:51</t>
+          <t>2025-07-28 20:09</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1052,38 +1052,38 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.59221</v>
+        <v>0.8848</v>
       </c>
       <c r="E5" t="n">
-        <v>0.58799</v>
+        <v>0.88062</v>
       </c>
       <c r="F5" t="n">
-        <v>0.59656</v>
+        <v>0.89168</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.03</v>
+        <v>1.65</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-28 20:01</t>
+          <t>2025-07-28 20:05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>XAUAUD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1092,118 +1092,118 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4068.58247</v>
+        <v>1.36249</v>
       </c>
       <c r="E6" t="n">
-        <v>4068.57785</v>
+        <v>1.35919</v>
       </c>
       <c r="F6" t="n">
-        <v>4068.5889</v>
+        <v>1.37219</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H6" t="n">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="I6" t="n">
-        <v>1.39</v>
+        <v>2.94</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-28 19:43</t>
+          <t>2025-07-28 20:44</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>XAUCHF</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2336.548</v>
+        <v>149.94536</v>
       </c>
       <c r="E7" t="n">
-        <v>2336.55109</v>
+        <v>149.5977</v>
       </c>
       <c r="F7" t="n">
-        <v>2336.54131</v>
+        <v>150.9003</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="H7" t="n">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="I7" t="n">
-        <v>2.16</v>
+        <v>2.75</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-28 19:41</t>
+          <t>2025-07-28 20:42</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.10507</v>
+        <v>0.87869</v>
       </c>
       <c r="E8" t="n">
-        <v>1.1005</v>
+        <v>0.88166</v>
       </c>
       <c r="F8" t="n">
-        <v>1.10936</v>
+        <v>0.8714499999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H8" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.44</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-28 20:19</t>
+          <t>2025-07-28 20:50</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>XAUUSD</t>
+          <t>XAUGBP</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1212,38 +1212,38 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2644.48224</v>
+        <v>2107.12619</v>
       </c>
       <c r="E9" t="n">
-        <v>2644.47753</v>
+        <v>2107.1232</v>
       </c>
       <c r="F9" t="n">
-        <v>2644.48859</v>
+        <v>2107.13299</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H9" t="n">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="I9" t="n">
-        <v>1.35</v>
+        <v>2.28</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-07-28 19:44</t>
+          <t>2025-07-28 20:24</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>XAUEUR</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1252,22 +1252,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.58648</v>
+        <v>2416.53418</v>
       </c>
       <c r="E10" t="n">
-        <v>0.58863</v>
+        <v>2416.5373</v>
       </c>
       <c r="F10" t="n">
-        <v>0.58035</v>
+        <v>2416.53013</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="I10" t="n">
-        <v>2.85</v>
+        <v>1.3</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1278,36 +1278,36 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-28 20:08</t>
+          <t>2025-07-28 19:54</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>XAUCHF</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>149.07482</v>
+        <v>2338.51219</v>
       </c>
       <c r="E11" t="n">
-        <v>149.36232</v>
+        <v>2338.50814</v>
       </c>
       <c r="F11" t="n">
-        <v>148.34779</v>
+        <v>2338.52196</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="H11" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="I11" t="n">
-        <v>2.53</v>
+        <v>2.41</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1318,12 +1318,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-28 20:25</t>
+          <t>2025-07-28 19:54</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1332,22 +1332,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.36369</v>
+        <v>0.65846</v>
       </c>
       <c r="E12" t="n">
-        <v>1.36737</v>
+        <v>0.66216</v>
       </c>
       <c r="F12" t="n">
-        <v>1.35429</v>
+        <v>0.6499</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="H12" t="n">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="I12" t="n">
-        <v>2.56</v>
+        <v>2.32</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1358,12 +1358,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-28 20:24</t>
+          <t>2025-07-28 20:33</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>XAUEUR</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1372,38 +1372,38 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>149.10511</v>
+        <v>2417.12925</v>
       </c>
       <c r="E13" t="n">
-        <v>148.847</v>
+        <v>2417.12517</v>
       </c>
       <c r="F13" t="n">
-        <v>150.01508</v>
+        <v>2417.13821</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="I13" t="n">
-        <v>3.53</v>
+        <v>2.2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-28 19:51</t>
+          <t>2025-07-28 20:29</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>XAUEUR</t>
+          <t>XAUUSD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1412,56 +1412,56 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2422.95788</v>
+        <v>2661.95755</v>
       </c>
       <c r="E14" t="n">
-        <v>2422.96252</v>
+        <v>2661.95969</v>
       </c>
       <c r="F14" t="n">
-        <v>2422.95307</v>
+        <v>2661.95199</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H14" t="n">
         <v>0.84</v>
       </c>
       <c r="I14" t="n">
-        <v>1.04</v>
+        <v>2.6</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-28 19:57</t>
+          <t>2025-07-28 20:12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>XAUUSD</t>
+          <t>XAUCHF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2649.17888</v>
+        <v>2348.2017</v>
       </c>
       <c r="E15" t="n">
-        <v>2649.18361</v>
+        <v>2348.19708</v>
       </c>
       <c r="F15" t="n">
-        <v>2649.17293</v>
+        <v>2348.20753</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="H15" t="n">
         <v>0.78</v>
@@ -1471,19 +1471,19 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-28 20:21</t>
+          <t>2025-07-28 20:39</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>XAUEUR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1492,26 +1492,26 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.88436</v>
+        <v>2413.91887</v>
       </c>
       <c r="E16" t="n">
-        <v>0.87957</v>
+        <v>2413.91527</v>
       </c>
       <c r="F16" t="n">
-        <v>0.89366</v>
+        <v>2413.92515</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="I16" t="n">
-        <v>1.94</v>
+        <v>1.74</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Active</t>
         </is>
       </c>
     </row>

--- a/signal_output/genx_signals.xlsx
+++ b/signal_output/genx_signals.xlsx
@@ -55,14 +55,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,38 +535,38 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 20:09</t>
+          <t>2025-07-28 21:03</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>XAUGBP</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2093.51867</v>
+        <v>1.10695</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2093.52187</v>
+        <v>1.10383</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2093.5146</v>
+        <v>1.11219</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>84.0%</t>
+          <t>81.0%</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1.27</v>
+        <v>1.68</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
@@ -577,38 +577,38 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 20:33</t>
+          <t>2025-07-28 21:16</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>XAUCAD</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
+          <t>USDCHF</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>SELL</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3637.02642</v>
+        <v>0.87879</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3637.02962</v>
+        <v>0.88296</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3637.02181</v>
+        <v>0.87072</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>90.0%</t>
+          <t>79.0%</t>
         </is>
       </c>
       <c r="I3" s="2" t="n">
-        <v>1.44</v>
+        <v>1.93</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
@@ -619,124 +619,40 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 20:05</t>
+          <t>2025-07-28 20:40</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>USDCAD</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
+          <t>USDCHF</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>BUY</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.36249</v>
+        <v>0.87926</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.35919</v>
+        <v>0.87699</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.37219</v>
+        <v>0.8847</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>84.0%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="n">
-        <v>2.94</v>
+        <v>2.4</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-28 19:54</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>XAUCHF</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>2338.51219</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>2338.50814</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>2338.52196</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>88.0%</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-28 20:39</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>XAUEUR</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>2413.91887</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>2413.91527</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>2413.92515</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>83.0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
@@ -785,7 +701,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -795,7 +711,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -805,7 +721,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -816,7 +732,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>83.8%</t>
+          <t>85.8%</t>
         </is>
       </c>
     </row>
@@ -828,7 +744,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.14</t>
         </is>
       </c>
     </row>
@@ -840,7 +756,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-28 20:23:57</t>
+          <t>2025-07-28 20:56:28</t>
         </is>
       </c>
     </row>
@@ -918,36 +834,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-28 20:09</t>
+          <t>2025-07-28 21:03</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>XAUGBP</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2093.51867</v>
+        <v>1.10695</v>
       </c>
       <c r="E2" t="n">
-        <v>2093.52187</v>
+        <v>1.10383</v>
       </c>
       <c r="F2" t="n">
-        <v>2093.5146</v>
+        <v>1.11219</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>1.27</v>
+        <v>1.68</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -958,12 +874,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-28 20:44</t>
+          <t>2025-07-28 20:53</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>XAUEUR</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -972,78 +888,78 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2418.08605</v>
+        <v>0.88184</v>
       </c>
       <c r="E3" t="n">
-        <v>2418.09006</v>
+        <v>0.8858</v>
       </c>
       <c r="F3" t="n">
-        <v>2418.0814</v>
+        <v>0.8768899999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="H3" t="n">
         <v>0.89</v>
       </c>
       <c r="I3" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-28 20:33</t>
+          <t>2025-07-28 20:32</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>XAUCAD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3637.02642</v>
+        <v>1.10663</v>
       </c>
       <c r="E4" t="n">
-        <v>3637.02962</v>
+        <v>1.10299</v>
       </c>
       <c r="F4" t="n">
-        <v>3637.02181</v>
+        <v>1.11359</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="I4" t="n">
-        <v>1.44</v>
+        <v>1.91</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-28 20:09</t>
+          <t>2025-07-28 21:13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1052,22 +968,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8848</v>
+        <v>149.23577</v>
       </c>
       <c r="E5" t="n">
-        <v>0.88062</v>
+        <v>149.00513</v>
       </c>
       <c r="F5" t="n">
-        <v>0.89168</v>
+        <v>149.6558</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -1078,92 +994,92 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-28 20:05</t>
+          <t>2025-07-28 20:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>XAUAUD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.36249</v>
+        <v>4065.77924</v>
       </c>
       <c r="E6" t="n">
-        <v>1.35919</v>
+        <v>4065.78308</v>
       </c>
       <c r="F6" t="n">
-        <v>1.37219</v>
+        <v>4065.77082</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H6" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="I6" t="n">
-        <v>2.94</v>
+        <v>2.19</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-28 20:44</t>
+          <t>2025-07-28 21:03</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>XAUCHF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>149.94536</v>
+        <v>2344.45541</v>
       </c>
       <c r="E7" t="n">
-        <v>149.5977</v>
+        <v>2344.45954</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9003</v>
+        <v>2344.44827</v>
       </c>
       <c r="G7" t="n">
         <v>0.04</v>
       </c>
       <c r="H7" t="n">
-        <v>0.93</v>
+        <v>0.76</v>
       </c>
       <c r="I7" t="n">
-        <v>2.75</v>
+        <v>1.73</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-28 20:42</t>
+          <t>2025-07-28 21:12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1172,22 +1088,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.87869</v>
+        <v>1.10121</v>
       </c>
       <c r="E8" t="n">
-        <v>0.88166</v>
+        <v>1.10352</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8714499999999999</v>
+        <v>1.09431</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="H8" t="n">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
       <c r="I8" t="n">
-        <v>2.44</v>
+        <v>2.98</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1198,52 +1114,52 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-28 20:50</t>
+          <t>2025-07-28 21:16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>XAUGBP</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2107.12619</v>
+        <v>0.87879</v>
       </c>
       <c r="E9" t="n">
-        <v>2107.1232</v>
+        <v>0.88296</v>
       </c>
       <c r="F9" t="n">
-        <v>2107.13299</v>
+        <v>0.87072</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H9" t="n">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="I9" t="n">
-        <v>2.28</v>
+        <v>1.93</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-07-28 20:24</t>
+          <t>2025-07-28 21:25</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>XAUEUR</t>
+          <t>XAUUSD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1252,22 +1168,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2416.53418</v>
+        <v>2640.34649</v>
       </c>
       <c r="E10" t="n">
-        <v>2416.5373</v>
+        <v>2640.34899</v>
       </c>
       <c r="F10" t="n">
-        <v>2416.53013</v>
+        <v>2640.33792</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="I10" t="n">
-        <v>1.3</v>
+        <v>3.41</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1278,12 +1194,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-28 19:54</t>
+          <t>2025-07-28 20:40</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>XAUCHF</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1292,22 +1208,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2338.51219</v>
+        <v>0.87926</v>
       </c>
       <c r="E11" t="n">
-        <v>2338.50814</v>
+        <v>0.87699</v>
       </c>
       <c r="F11" t="n">
-        <v>2338.52196</v>
+        <v>0.8847</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="H11" t="n">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="I11" t="n">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1318,7 +1234,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-28 19:54</t>
+          <t>2025-07-28 20:28</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1332,22 +1248,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.65846</v>
+        <v>0.65717</v>
       </c>
       <c r="E12" t="n">
-        <v>0.66216</v>
+        <v>0.66009</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6499</v>
+        <v>0.6475</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H12" t="n">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="I12" t="n">
-        <v>2.32</v>
+        <v>3.31</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1358,52 +1274,52 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-28 20:33</t>
+          <t>2025-07-28 21:26</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>XAUEUR</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2417.12925</v>
+        <v>1.10421</v>
       </c>
       <c r="E13" t="n">
-        <v>2417.12517</v>
+        <v>1.10631</v>
       </c>
       <c r="F13" t="n">
-        <v>2417.13821</v>
+        <v>1.09805</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="H13" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="I13" t="n">
-        <v>2.2</v>
+        <v>2.93</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-28 20:29</t>
+          <t>2025-07-28 21:09</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>XAUUSD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1412,62 +1328,62 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2661.95755</v>
+        <v>1.36718</v>
       </c>
       <c r="E14" t="n">
-        <v>2661.95969</v>
+        <v>1.3706</v>
       </c>
       <c r="F14" t="n">
-        <v>2661.95199</v>
+        <v>1.36273</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="H14" t="n">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-28 20:12</t>
+          <t>2025-07-28 21:13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>XAUCHF</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2348.2017</v>
+        <v>0.58909</v>
       </c>
       <c r="E15" t="n">
-        <v>2348.19708</v>
+        <v>0.5918</v>
       </c>
       <c r="F15" t="n">
-        <v>2348.20753</v>
+        <v>0.5845</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H15" t="n">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="I15" t="n">
-        <v>1.26</v>
+        <v>1.69</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1478,12 +1394,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-28 20:39</t>
+          <t>2025-07-28 20:41</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>XAUEUR</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1492,26 +1408,26 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2413.91887</v>
+        <v>1.27296</v>
       </c>
       <c r="E16" t="n">
-        <v>2413.91527</v>
+        <v>1.26797</v>
       </c>
       <c r="F16" t="n">
-        <v>2413.92515</v>
+        <v>1.28042</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="H16" t="n">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="I16" t="n">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>

--- a/signal_output/genx_signals.xlsx
+++ b/signal_output/genx_signals.xlsx
@@ -40,7 +40,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -57,12 +57,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00C6EFCE"/>
         <bgColor rgb="00C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -84,14 +78,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -460,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,12 +528,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 21:03</t>
+          <t>2025-07-28 21:20</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>XAUAUD</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -549,24 +542,24 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.10695</v>
+        <v>4050.075</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.10383</v>
+        <v>4050.07069</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.11219</v>
+        <v>4050.07993</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>81.0%</t>
+          <t>93.0%</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1.68</v>
+        <v>1.15</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
@@ -577,38 +570,38 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 21:16</t>
+          <t>2025-07-28 21:34</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>USDCHF</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>SELL</t>
+          <t>XAUCAD</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.87879</v>
+        <v>3612.73645</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.88296</v>
+        <v>3612.73385</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0.87072</v>
+        <v>3612.74238</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>79.0%</t>
+          <t>82.0%</t>
         </is>
       </c>
       <c r="I3" s="2" t="n">
-        <v>1.93</v>
+        <v>2.29</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
@@ -619,12 +612,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 20:40</t>
+          <t>2025-07-28 20:46</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>XAUEUR</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -633,26 +626,152 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.87926</v>
+        <v>2409.80569</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.87699</v>
+        <v>2409.8021</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0.8847</v>
+        <v>2409.81324</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>82.0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="n">
-        <v>2.4</v>
+        <v>2.11</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-28 21:06</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>XAUEUR</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>2430.46354</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>2430.4592</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>2430.46898</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>82.0%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-28 20:58</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>XAUUSD</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>2658.28655</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>2658.28254</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>2658.29248</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>85.0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-28 21:28</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>XAUCHF</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>2342.20274</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>2342.19957</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2342.21077</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>88.0%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
@@ -678,14 +797,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>GenX FX Trading Dashboard</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Total Signals</t>
         </is>
@@ -695,68 +814,68 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Active Signals</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>BUY Signals</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>SELL Signals</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>Average Confidence</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>85.8%</t>
+          <t>86.0%</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>Average Risk/Reward</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.07</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>Last Update</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-28 20:56:28</t>
+          <t>2025-07-28 21:05:50</t>
         </is>
       </c>
     </row>
@@ -780,52 +899,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Symbol</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Signal</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Entry</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>SL</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>TP</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Lots</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>Confidence</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>R:R</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
@@ -834,92 +953,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-28 21:03</t>
+          <t>2025-07-28 21:12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.10695</v>
+        <v>0.87883</v>
       </c>
       <c r="E2" t="n">
-        <v>1.10383</v>
+        <v>0.88343</v>
       </c>
       <c r="F2" t="n">
-        <v>1.11219</v>
+        <v>0.87402</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1.68</v>
+        <v>1.05</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-28 20:53</t>
+          <t>2025-07-28 21:20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>XAUAUD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.88184</v>
+        <v>4050.075</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8858</v>
+        <v>4050.07069</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8768899999999999</v>
+        <v>4050.07993</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="H3" t="n">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="I3" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-28 20:32</t>
+          <t>2025-07-28 21:34</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>XAUCAD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -928,38 +1047,38 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.10663</v>
+        <v>3612.73645</v>
       </c>
       <c r="E4" t="n">
-        <v>1.10299</v>
+        <v>3612.73385</v>
       </c>
       <c r="F4" t="n">
-        <v>1.11359</v>
+        <v>3612.74238</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="I4" t="n">
-        <v>1.91</v>
+        <v>2.29</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-28 21:13</t>
+          <t>2025-07-28 20:50</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>XAUCHF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -968,22 +1087,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>149.23577</v>
+        <v>2347.84751</v>
       </c>
       <c r="E5" t="n">
-        <v>149.00513</v>
+        <v>2347.84358</v>
       </c>
       <c r="F5" t="n">
-        <v>149.6558</v>
+        <v>2347.85424</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="I5" t="n">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -994,12 +1113,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-28 20:30</t>
+          <t>2025-07-28 21:09</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>XAUAUD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1008,113 +1127,113 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4065.77924</v>
+        <v>1.36148</v>
       </c>
       <c r="E6" t="n">
-        <v>4065.78308</v>
+        <v>1.36404</v>
       </c>
       <c r="F6" t="n">
-        <v>4065.77082</v>
+        <v>1.35459</v>
       </c>
       <c r="G6" t="n">
         <v>0.04</v>
       </c>
       <c r="H6" t="n">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="I6" t="n">
-        <v>2.19</v>
+        <v>2.68</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-28 21:03</t>
+          <t>2025-07-28 20:46</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>XAUCHF</t>
+          <t>XAUEUR</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2344.45541</v>
+        <v>2409.80569</v>
       </c>
       <c r="E7" t="n">
-        <v>2344.45954</v>
+        <v>2409.8021</v>
       </c>
       <c r="F7" t="n">
-        <v>2344.44827</v>
+        <v>2409.81324</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="I7" t="n">
-        <v>1.73</v>
+        <v>2.11</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-28 21:12</t>
+          <t>2025-07-28 21:05</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.10121</v>
+        <v>0.6583</v>
       </c>
       <c r="E8" t="n">
-        <v>1.10352</v>
+        <v>0.65416</v>
       </c>
       <c r="F8" t="n">
-        <v>1.09431</v>
+        <v>0.66778</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="I8" t="n">
-        <v>2.98</v>
+        <v>2.3</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-28 21:16</t>
+          <t>2025-07-28 20:46</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1128,118 +1247,118 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.87879</v>
+        <v>0.8781</v>
       </c>
       <c r="E9" t="n">
-        <v>0.88296</v>
+        <v>0.8825</v>
       </c>
       <c r="F9" t="n">
-        <v>0.87072</v>
+        <v>0.87026</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="H9" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="I9" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-07-28 21:25</t>
+          <t>2025-07-28 21:06</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>XAUUSD</t>
+          <t>XAUEUR</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2640.34649</v>
+        <v>2430.46354</v>
       </c>
       <c r="E10" t="n">
-        <v>2640.34899</v>
+        <v>2430.4592</v>
       </c>
       <c r="F10" t="n">
-        <v>2640.33792</v>
+        <v>2430.46898</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="H10" t="n">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="I10" t="n">
-        <v>3.41</v>
+        <v>1.25</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-28 20:40</t>
+          <t>2025-07-28 20:46</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.87926</v>
+        <v>1.09942</v>
       </c>
       <c r="E11" t="n">
-        <v>0.87699</v>
+        <v>1.10151</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8847</v>
+        <v>1.09073</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="I11" t="n">
-        <v>2.4</v>
+        <v>4.17</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-28 20:28</t>
+          <t>2025-07-28 21:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>XAUCAD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1248,22 +1367,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.65717</v>
+        <v>3612.22436</v>
       </c>
       <c r="E12" t="n">
-        <v>0.66009</v>
+        <v>3612.22808</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6475</v>
+        <v>3612.21709</v>
       </c>
       <c r="G12" t="n">
         <v>0.02</v>
       </c>
       <c r="H12" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="I12" t="n">
-        <v>3.31</v>
+        <v>1.96</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1274,52 +1393,52 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-28 21:26</t>
+          <t>2025-07-28 20:58</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>XAUUSD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.10421</v>
+        <v>2658.28655</v>
       </c>
       <c r="E13" t="n">
-        <v>1.10631</v>
+        <v>2658.28254</v>
       </c>
       <c r="F13" t="n">
-        <v>1.09805</v>
+        <v>2658.29248</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="I13" t="n">
-        <v>2.93</v>
+        <v>1.48</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-28 21:09</t>
+          <t>2025-07-28 20:58</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1328,22 +1447,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.36718</v>
+        <v>0.65913</v>
       </c>
       <c r="E14" t="n">
-        <v>1.3706</v>
+        <v>0.66182</v>
       </c>
       <c r="F14" t="n">
-        <v>1.36273</v>
+        <v>0.65303</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="I14" t="n">
-        <v>1.3</v>
+        <v>2.27</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1354,12 +1473,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-28 21:13</t>
+          <t>2025-07-28 20:49</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>XAUEUR</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1368,38 +1487,38 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.58909</v>
+        <v>2412.69942</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5918</v>
+        <v>2412.70367</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5845</v>
+        <v>2412.68955</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="H15" t="n">
         <v>0.91</v>
       </c>
       <c r="I15" t="n">
-        <v>1.69</v>
+        <v>2.32</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-28 20:41</t>
+          <t>2025-07-28 21:28</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>XAUCHF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1408,26 +1527,26 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.27296</v>
+        <v>2342.20274</v>
       </c>
       <c r="E16" t="n">
-        <v>1.26797</v>
+        <v>2342.19957</v>
       </c>
       <c r="F16" t="n">
-        <v>1.28042</v>
+        <v>2342.21077</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="I16" t="n">
-        <v>1.5</v>
+        <v>2.53</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>

--- a/signal_output/genx_signals.xlsx
+++ b/signal_output/genx_signals.xlsx
@@ -40,7 +40,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -57,6 +57,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00C6EFCE"/>
         <bgColor rgb="00C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -78,13 +84,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -453,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +535,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 21:20</t>
+          <t>2025-07-28 21:28</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -542,20 +549,20 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>4050.075</v>
+        <v>4064.91481</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4050.07069</v>
+        <v>4064.91121</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4050.07993</v>
+        <v>4064.91896</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>93.0%</t>
+          <t>84.0%</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
@@ -570,208 +577,40 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 21:34</t>
+          <t>2025-07-28 20:55</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>XAUCAD</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>BUY</t>
+          <t>XAUGBP</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3612.73645</v>
+        <v>2109.70362</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3612.73385</v>
+        <v>2109.7061</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3612.74238</v>
+        <v>2109.69605</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>82.0%</t>
+          <t>84.0%</t>
         </is>
       </c>
       <c r="I3" s="2" t="n">
-        <v>2.29</v>
+        <v>3.04</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-28 20:46</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>XAUEUR</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>2409.80569</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>2409.8021</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>2409.81324</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>82.0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-28 21:06</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>XAUEUR</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>2430.46354</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>2430.4592</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>2430.46898</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>82.0%</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-28 20:58</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>XAUUSD</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>2658.28655</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>2658.28254</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>2658.29248</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>85.0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-28 21:28</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>XAUCHF</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>2342.20274</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>2342.19957</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>2342.21077</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>88.0%</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
@@ -797,14 +636,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>GenX FX Trading Dashboard</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>Total Signals</t>
         </is>
@@ -814,68 +653,68 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Active Signals</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>BUY Signals</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>SELL Signals</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>SELL Signals</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-    </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>Average Confidence</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>86.0%</t>
+          <t>83.5%</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Average Risk/Reward</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.93</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>Last Update</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-28 21:05:50</t>
+          <t>2025-07-28 21:07:35</t>
         </is>
       </c>
     </row>
@@ -899,52 +738,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Symbol</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Signal</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Entry</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>SL</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>TP</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Lots</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>Confidence</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="7" t="inlineStr">
         <is>
           <t>R:R</t>
         </is>
       </c>
-      <c r="J1" s="6" t="inlineStr">
+      <c r="J1" s="7" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
@@ -953,156 +792,156 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-28 21:12</t>
+          <t>2025-07-28 21:19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>XAUUSD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.87883</v>
+        <v>2638.81797</v>
       </c>
       <c r="E2" t="n">
-        <v>0.88343</v>
+        <v>2638.81536</v>
       </c>
       <c r="F2" t="n">
-        <v>0.87402</v>
+        <v>2638.82472</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="I2" t="n">
-        <v>1.05</v>
+        <v>2.59</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-28 21:20</t>
+          <t>2025-07-28 20:56</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>XAUAUD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4050.075</v>
+        <v>0.5863</v>
       </c>
       <c r="E3" t="n">
-        <v>4050.07069</v>
+        <v>0.58862</v>
       </c>
       <c r="F3" t="n">
-        <v>4050.07993</v>
+        <v>0.58136</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="I3" t="n">
-        <v>1.15</v>
+        <v>2.12</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-28 21:34</t>
+          <t>2025-07-28 20:43</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>XAUCAD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3612.73645</v>
+        <v>1.10395</v>
       </c>
       <c r="E4" t="n">
-        <v>3612.73385</v>
+        <v>1.10659</v>
       </c>
       <c r="F4" t="n">
-        <v>3612.74238</v>
+        <v>1.09987</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="H4" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="I4" t="n">
-        <v>2.29</v>
+        <v>1.54</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-28 20:50</t>
+          <t>2025-07-28 20:54</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>XAUCHF</t>
+          <t>XAUCAD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2347.84751</v>
+        <v>3602.6381</v>
       </c>
       <c r="E5" t="n">
-        <v>2347.84358</v>
+        <v>3602.64162</v>
       </c>
       <c r="F5" t="n">
-        <v>2347.85424</v>
+        <v>3602.63223</v>
       </c>
       <c r="G5" t="n">
         <v>0.1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="I5" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -1113,76 +952,76 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-28 21:09</t>
+          <t>2025-07-28 21:28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>XAUAUD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.36148</v>
+        <v>4064.91481</v>
       </c>
       <c r="E6" t="n">
-        <v>1.36404</v>
+        <v>4064.91121</v>
       </c>
       <c r="F6" t="n">
-        <v>1.35459</v>
+        <v>4064.91896</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="I6" t="n">
-        <v>2.68</v>
+        <v>1.15</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-28 20:46</t>
+          <t>2025-07-28 20:55</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>XAUEUR</t>
+          <t>XAUGBP</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2409.80569</v>
+        <v>2109.70362</v>
       </c>
       <c r="E7" t="n">
-        <v>2409.8021</v>
+        <v>2109.7061</v>
       </c>
       <c r="F7" t="n">
-        <v>2409.81324</v>
+        <v>2109.69605</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="H7" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="I7" t="n">
-        <v>2.11</v>
+        <v>3.04</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -1193,12 +1032,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-28 21:05</t>
+          <t>2025-07-28 20:40</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>XAUCAD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1207,22 +1046,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.6583</v>
+        <v>3637.04486</v>
       </c>
       <c r="E8" t="n">
-        <v>0.65416</v>
+        <v>3637.0413</v>
       </c>
       <c r="F8" t="n">
-        <v>0.66778</v>
+        <v>3637.05461</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="H8" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1233,12 +1072,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-28 20:46</t>
+          <t>2025-07-28 21:33</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>XAUCHF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1247,38 +1086,38 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8781</v>
+        <v>2330.19431</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8825</v>
+        <v>2330.19843</v>
       </c>
       <c r="F9" t="n">
-        <v>0.87026</v>
+        <v>2330.18961</v>
       </c>
       <c r="G9" t="n">
         <v>0.09</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="I9" t="n">
-        <v>1.78</v>
+        <v>1.14</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-07-28 21:06</t>
+          <t>2025-07-28 21:19</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>XAUEUR</t>
+          <t>XAUUSD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1287,38 +1126,38 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2430.46354</v>
+        <v>2654.13881</v>
       </c>
       <c r="E10" t="n">
-        <v>2430.4592</v>
+        <v>2654.13442</v>
       </c>
       <c r="F10" t="n">
-        <v>2430.46898</v>
+        <v>2654.14534</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="I10" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-28 20:46</t>
+          <t>2025-07-28 20:52</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>XAUEUR</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1327,38 +1166,38 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.09942</v>
+        <v>2414.83832</v>
       </c>
       <c r="E11" t="n">
-        <v>1.10151</v>
+        <v>2414.84059</v>
       </c>
       <c r="F11" t="n">
-        <v>1.09073</v>
+        <v>2414.82938</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H11" t="n">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="I11" t="n">
-        <v>4.17</v>
+        <v>3.94</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-28 21:00</t>
+          <t>2025-07-28 20:59</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>XAUCAD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1367,38 +1206,38 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3612.22436</v>
+        <v>0.58938</v>
       </c>
       <c r="E12" t="n">
-        <v>3612.22808</v>
+        <v>0.59428</v>
       </c>
       <c r="F12" t="n">
-        <v>3612.21709</v>
+        <v>0.58413</v>
       </c>
       <c r="G12" t="n">
         <v>0.02</v>
       </c>
       <c r="H12" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="I12" t="n">
-        <v>1.96</v>
+        <v>1.07</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-28 20:58</t>
+          <t>2025-07-28 21:25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>XAUUSD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1407,78 +1246,78 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2658.28655</v>
+        <v>1.10743</v>
       </c>
       <c r="E13" t="n">
-        <v>2658.28254</v>
+        <v>1.10362</v>
       </c>
       <c r="F13" t="n">
-        <v>2658.29248</v>
+        <v>1.1122</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="H13" t="n">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
       <c r="I13" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-28 20:58</t>
+          <t>2025-07-28 21:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>XAUEUR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.65913</v>
+        <v>2412.942</v>
       </c>
       <c r="E14" t="n">
-        <v>0.66182</v>
+        <v>2412.93763</v>
       </c>
       <c r="F14" t="n">
-        <v>0.65303</v>
+        <v>2412.94933</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="I14" t="n">
-        <v>2.27</v>
+        <v>1.68</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-28 20:49</t>
+          <t>2025-07-28 21:35</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>XAUEUR</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1487,38 +1326,38 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2412.69942</v>
+        <v>1.3615</v>
       </c>
       <c r="E15" t="n">
-        <v>2412.70367</v>
+        <v>1.36633</v>
       </c>
       <c r="F15" t="n">
-        <v>2412.68955</v>
+        <v>1.35425</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="H15" t="n">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="I15" t="n">
-        <v>2.32</v>
+        <v>1.5</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-28 21:28</t>
+          <t>2025-07-28 21:07</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>XAUCHF</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1527,26 +1366,26 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2342.20274</v>
+        <v>0.88156</v>
       </c>
       <c r="E16" t="n">
-        <v>2342.19957</v>
+        <v>0.87934</v>
       </c>
       <c r="F16" t="n">
-        <v>2342.21077</v>
+        <v>0.88597</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="H16" t="n">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>2.53</v>
+        <v>1.99</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
